--- a/IDBR/excel/resuilt_new.xlsx
+++ b/IDBR/excel/resuilt_new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\IDBR\IRDBR\IDBR\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F80C35-74D0-4131-99BF-11000C2AB021}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6BF6BB-8A5C-42D0-B8B2-D0D7306CA0F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-960" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A13DA03A-EA5C-411C-8535-D1B579D97496}"/>
   </bookViews>
@@ -275,6 +275,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -283,11 +288,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -604,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51896C0A-7784-43F1-ABC7-B5DD42D8A460}">
-  <dimension ref="A1:X93"/>
+  <dimension ref="A1:AB109"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:P22"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104:L109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,7 +1226,7 @@
         <v>2229580</v>
       </c>
       <c r="M17" s="6">
-        <v>2202090</v>
+        <v>1810160</v>
       </c>
       <c r="N17" s="6">
         <v>2204980</v>
@@ -1279,7 +1279,7 @@
         <v>4232160</v>
       </c>
       <c r="M18" s="6">
-        <v>4143490</v>
+        <v>2202090</v>
       </c>
       <c r="N18" s="6">
         <v>4006460</v>
@@ -1329,13 +1329,13 @@
         <v>0.5</v>
       </c>
       <c r="L19" s="6">
-        <v>6432960</v>
+        <v>5789960</v>
       </c>
       <c r="M19" s="6">
-        <v>6555730</v>
+        <v>4143490</v>
       </c>
       <c r="N19" s="6">
-        <v>5985190</v>
+        <v>5357690</v>
       </c>
       <c r="O19" s="6">
         <v>5496840</v>
@@ -1385,16 +1385,16 @@
         <v>5820810</v>
       </c>
       <c r="M20" s="6">
-        <v>6658790</v>
+        <v>6555730</v>
       </c>
       <c r="N20" s="6">
-        <v>5357690</v>
+        <v>5587290</v>
       </c>
       <c r="O20" s="6">
         <v>5578560</v>
       </c>
       <c r="P20" s="6">
-        <v>6732250</v>
+        <v>6657220</v>
       </c>
       <c r="Q20" s="6">
         <v>8384730</v>
@@ -1432,22 +1432,22 @@
         <v>27135600</v>
       </c>
       <c r="K21" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L21" s="6">
-        <v>5789960</v>
+        <v>6432960</v>
       </c>
       <c r="M21" s="6">
-        <v>6619830</v>
+        <v>6658790</v>
       </c>
       <c r="N21" s="6">
         <v>6077470</v>
       </c>
       <c r="O21" s="6">
-        <v>5625940</v>
+        <v>5581420</v>
       </c>
       <c r="P21" s="6">
-        <v>7101410</v>
+        <v>6732250</v>
       </c>
       <c r="Q21" s="6">
         <v>11641000</v>
@@ -1485,22 +1485,22 @@
         <v>29912700</v>
       </c>
       <c r="K22" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L22" s="6">
         <v>6409270</v>
       </c>
       <c r="M22" s="6">
-        <v>1810160</v>
+        <v>6619830</v>
       </c>
       <c r="N22" s="6">
-        <v>5587290</v>
+        <v>5985190</v>
       </c>
       <c r="O22" s="6">
-        <v>5581420</v>
+        <v>5625940</v>
       </c>
       <c r="P22" s="6">
-        <v>6657220</v>
+        <v>7101410</v>
       </c>
       <c r="Q22" s="6">
         <v>11592300</v>
@@ -1600,7 +1600,7 @@
         <v>0.01</v>
       </c>
       <c r="L25">
-        <v>15.4001</v>
+        <v>15.451599999999999</v>
       </c>
       <c r="M25">
         <v>15.396599999999999</v>
@@ -1652,7 +1652,7 @@
         <v>0.02</v>
       </c>
       <c r="L26">
-        <v>15.451599999999999</v>
+        <v>15.4001</v>
       </c>
       <c r="M26">
         <v>15.3035</v>
@@ -1768,7 +1768,7 @@
         <v>14.838900000000001</v>
       </c>
       <c r="P28">
-        <v>14.827299999999999</v>
+        <v>14.8947</v>
       </c>
       <c r="Q28">
         <v>15.1203</v>
@@ -1820,7 +1820,7 @@
         <v>14.72</v>
       </c>
       <c r="P29">
-        <v>14.8947</v>
+        <v>14.827299999999999</v>
       </c>
       <c r="Q29">
         <v>14.879300000000001</v>
@@ -1986,11 +1986,11 @@
         <v>2.9562622070312501</v>
       </c>
       <c r="W32">
-        <f t="shared" ref="V32:W32" si="17">W21/1024</f>
+        <f t="shared" ref="W32" si="17">W21/1024</f>
         <v>2.5358398437499998</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <v>5</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>12.364000000000001</v>
       </c>
       <c r="N33">
-        <v>11.234500000000001</v>
+        <v>11.2546</v>
       </c>
       <c r="O33">
         <v>11.2873</v>
@@ -2034,7 +2034,7 @@
         <v>10.8726</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
         <v>10</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>12.328200000000001</v>
       </c>
       <c r="N34">
-        <v>11.2546</v>
+        <v>11.234500000000001</v>
       </c>
       <c r="O34">
         <v>11.279199999999999</v>
@@ -2078,7 +2078,39 @@
         <v>10.6335</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S35" s="6">
+        <v>7702850</v>
+      </c>
+      <c r="T35" s="6">
+        <v>8511400</v>
+      </c>
+      <c r="U35" s="6">
+        <v>8514410</v>
+      </c>
+      <c r="V35" s="6">
+        <v>8790340</v>
+      </c>
+      <c r="W35" s="6">
+        <v>8634570</v>
+      </c>
+      <c r="X35" s="6">
+        <v>8754730</v>
+      </c>
+      <c r="Y35" s="6">
+        <v>8776670</v>
+      </c>
+      <c r="Z35" s="6">
+        <v>8656050</v>
+      </c>
+      <c r="AA35" s="6">
+        <v>8540740</v>
+      </c>
+      <c r="AB35" s="6">
+        <v>8893520</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>23</v>
       </c>
@@ -2127,8 +2159,38 @@
       <c r="Q36" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S36" s="6">
+        <v>7738380</v>
+      </c>
+      <c r="T36" s="6">
+        <v>8668080</v>
+      </c>
+      <c r="U36" s="6">
+        <v>8717810</v>
+      </c>
+      <c r="V36" s="6">
+        <v>8613570</v>
+      </c>
+      <c r="W36" s="6">
+        <v>8832720</v>
+      </c>
+      <c r="X36" s="6">
+        <v>8940790</v>
+      </c>
+      <c r="Y36" s="6">
+        <v>8900440</v>
+      </c>
+      <c r="Z36" s="6">
+        <v>8803970</v>
+      </c>
+      <c r="AA36" s="6">
+        <v>8963080</v>
+      </c>
+      <c r="AB36" s="6">
+        <v>8589160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>0.01</v>
       </c>
@@ -2171,8 +2233,38 @@
       <c r="Q37" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S37" s="6">
+        <v>7327030</v>
+      </c>
+      <c r="T37" s="6">
+        <v>7922700</v>
+      </c>
+      <c r="U37" s="6">
+        <v>7852780</v>
+      </c>
+      <c r="V37" s="6">
+        <v>7941450</v>
+      </c>
+      <c r="W37" s="6">
+        <v>7971960</v>
+      </c>
+      <c r="X37" s="6">
+        <v>7923200</v>
+      </c>
+      <c r="Y37" s="6">
+        <v>8022170</v>
+      </c>
+      <c r="Z37" s="6">
+        <v>8089870</v>
+      </c>
+      <c r="AA37" s="6">
+        <v>8105170</v>
+      </c>
+      <c r="AB37" s="6">
+        <v>8045740</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>0.02</v>
       </c>
@@ -2215,8 +2307,38 @@
       <c r="Q38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S38" s="6">
+        <v>7386260</v>
+      </c>
+      <c r="T38" s="6">
+        <v>7943390</v>
+      </c>
+      <c r="U38" s="6">
+        <v>7887570</v>
+      </c>
+      <c r="V38" s="6">
+        <v>7966970</v>
+      </c>
+      <c r="W38" s="6">
+        <v>8084180</v>
+      </c>
+      <c r="X38" s="6">
+        <v>8065210</v>
+      </c>
+      <c r="Y38" s="6">
+        <v>7960790</v>
+      </c>
+      <c r="Z38" s="6">
+        <v>8044270</v>
+      </c>
+      <c r="AA38" s="6">
+        <v>8036360</v>
+      </c>
+      <c r="AB38" s="6">
+        <v>8075310</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>0.03</v>
       </c>
@@ -2259,8 +2381,38 @@
       <c r="Q39" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S39" s="6">
+        <v>7942380</v>
+      </c>
+      <c r="T39" s="6">
+        <v>8782490</v>
+      </c>
+      <c r="U39" s="6">
+        <v>8696030</v>
+      </c>
+      <c r="V39" s="6">
+        <v>9016750</v>
+      </c>
+      <c r="W39" s="6">
+        <v>9003270</v>
+      </c>
+      <c r="X39" s="6">
+        <v>9484870</v>
+      </c>
+      <c r="Y39" s="6">
+        <v>10088800</v>
+      </c>
+      <c r="Z39" s="6">
+        <v>10162800</v>
+      </c>
+      <c r="AA39" s="6">
+        <v>9832410</v>
+      </c>
+      <c r="AB39" s="6">
+        <v>10483200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>0.04</v>
       </c>
@@ -2303,8 +2455,38 @@
       <c r="Q40" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S40" s="6">
+        <v>7951530</v>
+      </c>
+      <c r="T40" s="6">
+        <v>9156130</v>
+      </c>
+      <c r="U40" s="6">
+        <v>9873240</v>
+      </c>
+      <c r="V40" s="6">
+        <v>10419800</v>
+      </c>
+      <c r="W40" s="6">
+        <v>11422600</v>
+      </c>
+      <c r="X40" s="6">
+        <v>13604500</v>
+      </c>
+      <c r="Y40" s="6">
+        <v>19096400</v>
+      </c>
+      <c r="Z40" s="6">
+        <v>21700000</v>
+      </c>
+      <c r="AA40" s="6">
+        <v>27135600</v>
+      </c>
+      <c r="AB40" s="6">
+        <v>29912700</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>0.05</v>
       </c>
@@ -2348,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>0.1</v>
       </c>
@@ -2392,7 +2574,7 @@
         <v>4.1418499999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B43" s="5">
         <v>0.5</v>
       </c>
@@ -2435,8 +2617,38 @@
       <c r="Q43" s="11">
         <v>0.590086</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S43">
+        <v>260.10000000000002</v>
+      </c>
+      <c r="T43">
+        <v>196.93199999999999</v>
+      </c>
+      <c r="U43">
+        <v>186.96100000000001</v>
+      </c>
+      <c r="V43">
+        <v>183.714</v>
+      </c>
+      <c r="W43">
+        <v>182.76900000000001</v>
+      </c>
+      <c r="X43">
+        <v>182.166</v>
+      </c>
+      <c r="Y43">
+        <v>179.82</v>
+      </c>
+      <c r="Z43">
+        <v>180.39099999999999</v>
+      </c>
+      <c r="AA43">
+        <v>179.82400000000001</v>
+      </c>
+      <c r="AB43">
+        <v>179.38800000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B44" s="5">
         <v>1</v>
       </c>
@@ -2479,8 +2691,38 @@
       <c r="Q44" s="11">
         <v>0.75946999999999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S44">
+        <v>261.32600000000002</v>
+      </c>
+      <c r="T44">
+        <v>197.43299999999999</v>
+      </c>
+      <c r="U44">
+        <v>187.20599999999999</v>
+      </c>
+      <c r="V44">
+        <v>182.42099999999999</v>
+      </c>
+      <c r="W44">
+        <v>181.95699999999999</v>
+      </c>
+      <c r="X44">
+        <v>181.16399999999999</v>
+      </c>
+      <c r="Y44">
+        <v>179.84700000000001</v>
+      </c>
+      <c r="Z44">
+        <v>179.179</v>
+      </c>
+      <c r="AA44">
+        <v>179.63200000000001</v>
+      </c>
+      <c r="AB44">
+        <v>179.697</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B45" s="5">
         <v>5</v>
       </c>
@@ -2523,8 +2765,38 @@
       <c r="Q45" s="11">
         <v>0.92861800000000005</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S45">
+        <v>248.155</v>
+      </c>
+      <c r="T45">
+        <v>179.27500000000001</v>
+      </c>
+      <c r="U45">
+        <v>169.62100000000001</v>
+      </c>
+      <c r="V45">
+        <v>167.53100000000001</v>
+      </c>
+      <c r="W45">
+        <v>166.43299999999999</v>
+      </c>
+      <c r="X45">
+        <v>166.55199999999999</v>
+      </c>
+      <c r="Y45">
+        <v>165.511</v>
+      </c>
+      <c r="Z45">
+        <v>164.66900000000001</v>
+      </c>
+      <c r="AA45">
+        <v>165.05799999999999</v>
+      </c>
+      <c r="AB45">
+        <v>165.762</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B46" s="5">
         <v>10</v>
       </c>
@@ -2567,8 +2839,102 @@
       <c r="Q46" s="11">
         <v>0.963673</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S46">
+        <v>249.637</v>
+      </c>
+      <c r="T46">
+        <v>179.07499999999999</v>
+      </c>
+      <c r="U46">
+        <v>170.476</v>
+      </c>
+      <c r="V46">
+        <v>168.21799999999999</v>
+      </c>
+      <c r="W46">
+        <v>167.53399999999999</v>
+      </c>
+      <c r="X46">
+        <v>165.34899999999999</v>
+      </c>
+      <c r="Y46">
+        <v>165.29900000000001</v>
+      </c>
+      <c r="Z46">
+        <v>165.684</v>
+      </c>
+      <c r="AA46">
+        <v>165.91399999999999</v>
+      </c>
+      <c r="AB46">
+        <v>164.792</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S47">
+        <v>265.05500000000001</v>
+      </c>
+      <c r="T47">
+        <v>174.446</v>
+      </c>
+      <c r="U47">
+        <v>160.13900000000001</v>
+      </c>
+      <c r="V47">
+        <v>157.37100000000001</v>
+      </c>
+      <c r="W47">
+        <v>155.71199999999999</v>
+      </c>
+      <c r="X47">
+        <v>154.155</v>
+      </c>
+      <c r="Y47">
+        <v>153.994</v>
+      </c>
+      <c r="Z47">
+        <v>154.30699999999999</v>
+      </c>
+      <c r="AA47">
+        <v>153.73699999999999</v>
+      </c>
+      <c r="AB47">
+        <v>152.547</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S48">
+        <v>263.435</v>
+      </c>
+      <c r="T48">
+        <v>182.74600000000001</v>
+      </c>
+      <c r="U48">
+        <v>172.84200000000001</v>
+      </c>
+      <c r="V48">
+        <v>168.37899999999999</v>
+      </c>
+      <c r="W48">
+        <v>167.43299999999999</v>
+      </c>
+      <c r="X48">
+        <v>157.83199999999999</v>
+      </c>
+      <c r="Y48">
+        <v>143.006</v>
+      </c>
+      <c r="Z48">
+        <v>139.577</v>
+      </c>
+      <c r="AA48">
+        <v>135.02799999999999</v>
+      </c>
+      <c r="AB48">
+        <v>133.41900000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>25</v>
       </c>
@@ -2618,7 +2984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>0.01</v>
       </c>
@@ -2662,7 +3028,7 @@
         <v>16.6355</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>0.02</v>
       </c>
@@ -2688,7 +3054,7 @@
         <v>0.02</v>
       </c>
       <c r="L51">
-        <v>20.622250000000001</v>
+        <v>19.622875000000001</v>
       </c>
       <c r="M51">
         <v>19.703375000000001</v>
@@ -2705,8 +3071,38 @@
       <c r="Q51">
         <v>17.211625000000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S51" s="11">
+        <v>1.63733E-2</v>
+      </c>
+      <c r="T51" s="11">
+        <v>0.27761000000000002</v>
+      </c>
+      <c r="U51" s="11">
+        <v>0.49448399999999998</v>
+      </c>
+      <c r="V51" s="11">
+        <v>0.60323499999999997</v>
+      </c>
+      <c r="W51" s="11">
+        <v>0.68441799999999997</v>
+      </c>
+      <c r="X51" s="11">
+        <v>0.83913000000000004</v>
+      </c>
+      <c r="Y51" s="11">
+        <v>0.96748100000000004</v>
+      </c>
+      <c r="Z51" s="11">
+        <v>0.98399599999999998</v>
+      </c>
+      <c r="AA51" s="11">
+        <v>0.99683299999999997</v>
+      </c>
+      <c r="AB51" s="11">
+        <v>0.99834699999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>0.03</v>
       </c>
@@ -2732,13 +3128,13 @@
         <v>0.03</v>
       </c>
       <c r="L52">
-        <v>19.622875000000001</v>
+        <v>20.622250000000001</v>
       </c>
       <c r="M52">
         <v>20.228375</v>
       </c>
       <c r="N52">
-        <v>23.187625000000001</v>
+        <v>21.844000000000001</v>
       </c>
       <c r="O52">
         <v>23.38175</v>
@@ -2749,8 +3145,38 @@
       <c r="Q52">
         <v>20.166374999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S52" s="11">
+        <v>1.4542899999999999E-2</v>
+      </c>
+      <c r="T52" s="11">
+        <v>0.267127</v>
+      </c>
+      <c r="U52" s="11">
+        <v>0.48041099999999998</v>
+      </c>
+      <c r="V52" s="11">
+        <v>0.60647300000000004</v>
+      </c>
+      <c r="W52" s="11">
+        <v>0.67582900000000001</v>
+      </c>
+      <c r="X52" s="11">
+        <v>0.83565599999999995</v>
+      </c>
+      <c r="Y52" s="11">
+        <v>0.96703300000000003</v>
+      </c>
+      <c r="Z52" s="11">
+        <v>0.98362499999999997</v>
+      </c>
+      <c r="AA52" s="11">
+        <v>0.99667300000000003</v>
+      </c>
+      <c r="AB52" s="11">
+        <v>0.99840700000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>0.04</v>
       </c>
@@ -2782,19 +3208,49 @@
         <v>21.099499999999999</v>
       </c>
       <c r="N53">
-        <v>21.844000000000001</v>
+        <v>23.187625000000001</v>
       </c>
       <c r="O53">
         <v>24.374124999999999</v>
       </c>
       <c r="P53">
-        <v>32.713250000000002</v>
+        <v>24.139875</v>
       </c>
       <c r="Q53">
-        <v>22.14425</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22.095500000000001</v>
+      </c>
+      <c r="S53" s="11">
+        <v>1.0089799999999999E-2</v>
+      </c>
+      <c r="T53" s="11">
+        <v>0.26613799999999999</v>
+      </c>
+      <c r="U53" s="11">
+        <v>0.48494500000000001</v>
+      </c>
+      <c r="V53" s="11">
+        <v>0.60423400000000005</v>
+      </c>
+      <c r="W53" s="11">
+        <v>0.67991400000000002</v>
+      </c>
+      <c r="X53" s="11">
+        <v>0.84171300000000004</v>
+      </c>
+      <c r="Y53" s="11">
+        <v>0.967692</v>
+      </c>
+      <c r="Z53" s="11">
+        <v>0.98362400000000005</v>
+      </c>
+      <c r="AA53" s="11">
+        <v>0.996726</v>
+      </c>
+      <c r="AB53" s="11">
+        <v>0.99838099999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>0.05</v>
       </c>
@@ -2832,13 +3288,43 @@
         <v>25.236374999999999</v>
       </c>
       <c r="P54">
-        <v>24.139875</v>
+        <v>32.713250000000002</v>
       </c>
       <c r="Q54">
-        <v>22.095500000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22.14425</v>
+      </c>
+      <c r="S54" s="11">
+        <v>1.07635E-2</v>
+      </c>
+      <c r="T54" s="11">
+        <v>0.26511899999999999</v>
+      </c>
+      <c r="U54" s="11">
+        <v>0.48611300000000002</v>
+      </c>
+      <c r="V54" s="11">
+        <v>0.60813799999999996</v>
+      </c>
+      <c r="W54" s="11">
+        <v>0.67913599999999996</v>
+      </c>
+      <c r="X54" s="11">
+        <v>0.83756699999999995</v>
+      </c>
+      <c r="Y54" s="11">
+        <v>0.96788200000000002</v>
+      </c>
+      <c r="Z54" s="11">
+        <v>0.98379799999999995</v>
+      </c>
+      <c r="AA54" s="11">
+        <v>0.99676900000000002</v>
+      </c>
+      <c r="AB54" s="11">
+        <v>0.998367</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>0.1</v>
       </c>
@@ -2881,8 +3367,38 @@
       <c r="Q55">
         <v>49.473875</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S55" s="11">
+        <v>1.9981999999999999E-3</v>
+      </c>
+      <c r="T55" s="11">
+        <v>0.16563700000000001</v>
+      </c>
+      <c r="U55" s="11">
+        <v>0.39579999999999999</v>
+      </c>
+      <c r="V55" s="11">
+        <v>0.52122400000000002</v>
+      </c>
+      <c r="W55" s="11">
+        <v>0.614255</v>
+      </c>
+      <c r="X55" s="11">
+        <v>0.79534800000000005</v>
+      </c>
+      <c r="Y55" s="11">
+        <v>0.95628299999999999</v>
+      </c>
+      <c r="Z55" s="11">
+        <v>0.97805500000000001</v>
+      </c>
+      <c r="AA55" s="11">
+        <v>0.99573400000000001</v>
+      </c>
+      <c r="AB55" s="11">
+        <v>0.99770899999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B56" s="5">
         <v>0.5</v>
       </c>
@@ -2917,7 +3433,7 @@
         <v>73.013000000000005</v>
       </c>
       <c r="O56">
-        <v>77.835125000000005</v>
+        <v>77.022000000000006</v>
       </c>
       <c r="P56">
         <v>102.526375</v>
@@ -2925,8 +3441,38 @@
       <c r="Q56">
         <v>87.841499999999996</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S56" s="11">
+        <v>3.1374900000000002E-3</v>
+      </c>
+      <c r="T56" s="11">
+        <v>0.16362599999999999</v>
+      </c>
+      <c r="U56" s="11">
+        <v>0.36363200000000001</v>
+      </c>
+      <c r="V56" s="11">
+        <v>0.48420999999999997</v>
+      </c>
+      <c r="W56" s="11">
+        <v>0.54504200000000003</v>
+      </c>
+      <c r="X56" s="11">
+        <v>0.71196199999999998</v>
+      </c>
+      <c r="Y56" s="11">
+        <v>0.91090599999999999</v>
+      </c>
+      <c r="Z56" s="11">
+        <v>0.94818800000000003</v>
+      </c>
+      <c r="AA56" s="11">
+        <v>0.98659300000000005</v>
+      </c>
+      <c r="AB56" s="11">
+        <v>0.99252300000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B57" s="5">
         <v>1</v>
       </c>
@@ -2952,25 +3498,25 @@
         <v>1</v>
       </c>
       <c r="L57">
-        <v>80.853624999999994</v>
+        <v>80.58775</v>
       </c>
       <c r="M57">
         <v>82.284875</v>
       </c>
       <c r="N57">
-        <v>82.700500000000005</v>
+        <v>74.077624999999998</v>
       </c>
       <c r="O57">
-        <v>77.022000000000006</v>
+        <v>77.835125000000005</v>
       </c>
       <c r="P57">
-        <v>106.74299999999999</v>
+        <v>105.965125</v>
       </c>
       <c r="Q57">
         <v>109.132375</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B58" s="5">
         <v>5</v>
       </c>
@@ -2996,25 +3542,25 @@
         <v>5</v>
       </c>
       <c r="L58">
-        <v>83.243750000000006</v>
+        <v>80.853624999999994</v>
       </c>
       <c r="M58">
         <v>83.702875000000006</v>
       </c>
       <c r="N58">
-        <v>74.077624999999998</v>
+        <v>78.084000000000003</v>
       </c>
       <c r="O58">
         <v>79.057374999999993</v>
       </c>
       <c r="P58">
-        <v>105.965125</v>
+        <v>106.74299999999999</v>
       </c>
       <c r="Q58">
         <v>128.38999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B59" s="5">
         <v>10</v>
       </c>
@@ -3040,13 +3586,13 @@
         <v>10</v>
       </c>
       <c r="L59">
-        <v>80.58775</v>
+        <v>83.243750000000006</v>
       </c>
       <c r="M59">
         <v>84.608999999999995</v>
       </c>
       <c r="N59">
-        <v>78.084000000000003</v>
+        <v>82.700500000000005</v>
       </c>
       <c r="O59">
         <v>79.418999999999997</v>
@@ -3057,8 +3603,70 @@
       <c r="Q59">
         <v>142.84</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S59">
+        <v>16.923124999999999</v>
+      </c>
+      <c r="T59">
+        <v>19.622875000000001</v>
+      </c>
+      <c r="U59">
+        <v>20.622250000000001</v>
+      </c>
+      <c r="V59">
+        <v>21.329499999999999</v>
+      </c>
+      <c r="W59">
+        <v>23.244499999999999</v>
+      </c>
+      <c r="X59">
+        <v>34.495249999999999</v>
+      </c>
+      <c r="Y59">
+        <v>77.827500000000001</v>
+      </c>
+      <c r="Z59">
+        <v>80.58775</v>
+      </c>
+      <c r="AA59">
+        <v>80.853624999999994</v>
+      </c>
+      <c r="AB59">
+        <v>83.243750000000006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S60">
+        <v>17.997125</v>
+      </c>
+      <c r="T60">
+        <v>19.703375000000001</v>
+      </c>
+      <c r="U60">
+        <v>20.228375</v>
+      </c>
+      <c r="V60">
+        <v>21.099499999999999</v>
+      </c>
+      <c r="W60">
+        <v>28.75975</v>
+      </c>
+      <c r="X60">
+        <v>43.287125000000003</v>
+      </c>
+      <c r="Y60">
+        <v>80.912000000000006</v>
+      </c>
+      <c r="Z60">
+        <v>82.284875</v>
+      </c>
+      <c r="AA60">
+        <v>83.702875000000006</v>
+      </c>
+      <c r="AB60">
+        <v>84.608999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>26</v>
       </c>
@@ -3107,8 +3715,38 @@
       <c r="Q61" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S61">
+        <v>17.138375</v>
+      </c>
+      <c r="T61">
+        <v>19.173249999999999</v>
+      </c>
+      <c r="U61">
+        <v>21.844000000000001</v>
+      </c>
+      <c r="V61">
+        <v>23.187625000000001</v>
+      </c>
+      <c r="W61">
+        <v>25.061250000000001</v>
+      </c>
+      <c r="X61">
+        <v>42.969124999999998</v>
+      </c>
+      <c r="Y61">
+        <v>73.013000000000005</v>
+      </c>
+      <c r="Z61">
+        <v>74.077624999999998</v>
+      </c>
+      <c r="AA61">
+        <v>78.084000000000003</v>
+      </c>
+      <c r="AB61">
+        <v>82.700500000000005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>0.01</v>
       </c>
@@ -3151,8 +3789,38 @@
       <c r="Q62">
         <v>197.51875000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S62">
+        <v>17.699375</v>
+      </c>
+      <c r="T62">
+        <v>19.026</v>
+      </c>
+      <c r="U62">
+        <v>23.38175</v>
+      </c>
+      <c r="V62">
+        <v>24.374124999999999</v>
+      </c>
+      <c r="W62">
+        <v>25.236374999999999</v>
+      </c>
+      <c r="X62">
+        <v>40.877749999999999</v>
+      </c>
+      <c r="Y62">
+        <v>77.022000000000006</v>
+      </c>
+      <c r="Z62">
+        <v>77.835125000000005</v>
+      </c>
+      <c r="AA62">
+        <v>79.057374999999993</v>
+      </c>
+      <c r="AB62">
+        <v>79.418999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>0.02</v>
       </c>
@@ -3195,8 +3863,38 @@
       <c r="Q63">
         <v>195.47375</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S63">
+        <v>16.7545</v>
+      </c>
+      <c r="T63">
+        <v>18.478750000000002</v>
+      </c>
+      <c r="U63">
+        <v>21.173500000000001</v>
+      </c>
+      <c r="V63">
+        <v>24.139875</v>
+      </c>
+      <c r="W63">
+        <v>32.713250000000002</v>
+      </c>
+      <c r="X63">
+        <v>38.22175</v>
+      </c>
+      <c r="Y63">
+        <v>102.526375</v>
+      </c>
+      <c r="Z63">
+        <v>105.965125</v>
+      </c>
+      <c r="AA63">
+        <v>106.74299999999999</v>
+      </c>
+      <c r="AB63">
+        <v>108.797375</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>0.03</v>
       </c>
@@ -3238,6 +3936,36 @@
       </c>
       <c r="Q64">
         <v>216.98625000000001</v>
+      </c>
+      <c r="S64">
+        <v>16.6355</v>
+      </c>
+      <c r="T64">
+        <v>17.211625000000002</v>
+      </c>
+      <c r="U64">
+        <v>20.166374999999999</v>
+      </c>
+      <c r="V64">
+        <v>22.095500000000001</v>
+      </c>
+      <c r="W64">
+        <v>22.14425</v>
+      </c>
+      <c r="X64">
+        <v>49.473875</v>
+      </c>
+      <c r="Y64">
+        <v>87.841499999999996</v>
+      </c>
+      <c r="Z64">
+        <v>109.132375</v>
+      </c>
+      <c r="AA64">
+        <v>128.38999999999999</v>
+      </c>
+      <c r="AB64">
+        <v>142.84</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
@@ -3624,22 +4352,22 @@
         <v>0.01</v>
       </c>
       <c r="L74">
-        <v>6.8327300000000004E-3</v>
+        <v>6.6048900000000004E-3</v>
       </c>
       <c r="M74">
-        <v>6.6516600000000002E-3</v>
+        <v>6.4795499999999997E-3</v>
       </c>
       <c r="N74">
         <v>5.7373499999999996E-3</v>
       </c>
       <c r="O74">
-        <v>6.3636700000000001E-3</v>
+        <v>6.3023100000000002E-3</v>
       </c>
       <c r="P74">
         <v>6.0337899999999998E-3</v>
       </c>
       <c r="Q74">
-        <v>6.2474699999999998E-3</v>
+        <v>6.1734600000000004E-3</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
@@ -3668,22 +4396,22 @@
         <v>0.02</v>
       </c>
       <c r="L75">
-        <v>6.6048900000000004E-3</v>
+        <v>6.8327300000000004E-3</v>
       </c>
       <c r="M75">
-        <v>6.4795499999999997E-3</v>
+        <v>6.6516600000000002E-3</v>
       </c>
       <c r="N75">
         <v>6.4044799999999997E-3</v>
       </c>
       <c r="O75">
-        <v>6.3023100000000002E-3</v>
+        <v>6.3636700000000001E-3</v>
       </c>
       <c r="P75">
         <v>6.9683499999999999E-3</v>
       </c>
       <c r="Q75">
-        <v>6.1734600000000004E-3</v>
+        <v>6.2474699999999998E-3</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
@@ -3718,7 +4446,7 @@
         <v>7.7494499999999997E-3</v>
       </c>
       <c r="N76">
-        <v>7.0643800000000003E-3</v>
+        <v>6.6967099999999998E-3</v>
       </c>
       <c r="O76">
         <v>6.5010399999999996E-3</v>
@@ -3762,13 +4490,13 @@
         <v>8.0807199999999996E-3</v>
       </c>
       <c r="N77">
-        <v>6.6967099999999998E-3</v>
+        <v>7.0643800000000003E-3</v>
       </c>
       <c r="O77">
         <v>7.6005300000000003E-3</v>
       </c>
       <c r="P77">
-        <v>9.6576400000000003E-3</v>
+        <v>9.2303799999999998E-3</v>
       </c>
       <c r="Q77">
         <v>8.6437300000000005E-3</v>
@@ -3812,7 +4540,7 @@
         <v>8.0600399999999992E-3</v>
       </c>
       <c r="P78">
-        <v>9.2303799999999998E-3</v>
+        <v>9.6576400000000003E-3</v>
       </c>
       <c r="Q78">
         <v>9.0525499999999995E-3</v>
@@ -3938,10 +4666,10 @@
         <v>5.7065299999999999E-2</v>
       </c>
       <c r="N81">
-        <v>2.0038500000000001E-2</v>
+        <v>1.8518699999999999E-2</v>
       </c>
       <c r="O81">
-        <v>1.96578E-2</v>
+        <v>1.9616399999999999E-2</v>
       </c>
       <c r="P81">
         <v>0.10423499999999999</v>
@@ -3979,13 +4707,13 @@
         <v>6.0612399999999997E-2</v>
       </c>
       <c r="M82">
-        <v>5.8351399999999998E-2</v>
+        <v>5.7569599999999999E-2</v>
       </c>
       <c r="N82">
-        <v>1.8518699999999999E-2</v>
+        <v>1.9827000000000001E-2</v>
       </c>
       <c r="O82">
-        <v>1.9952500000000001E-2</v>
+        <v>1.96578E-2</v>
       </c>
       <c r="P82">
         <v>0.11028300000000001</v>
@@ -4023,13 +4751,13 @@
         <v>6.0789900000000001E-2</v>
       </c>
       <c r="M83">
-        <v>5.7569599999999999E-2</v>
+        <v>5.8351399999999998E-2</v>
       </c>
       <c r="N83">
-        <v>1.9827000000000001E-2</v>
+        <v>2.0038500000000001E-2</v>
       </c>
       <c r="O83">
-        <v>1.9616399999999999E-2</v>
+        <v>1.9952500000000001E-2</v>
       </c>
       <c r="P83">
         <v>0.111693</v>
@@ -4191,9 +4919,393 @@
         <v>2.9313110351562499</v>
       </c>
     </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>0.10704</v>
+      </c>
+      <c r="D97">
+        <v>0.19745499999999999</v>
+      </c>
+      <c r="E97">
+        <v>0.21686</v>
+      </c>
+      <c r="F97">
+        <v>0.22320699999999999</v>
+      </c>
+      <c r="G97">
+        <v>0.22471099999999999</v>
+      </c>
+      <c r="H97">
+        <v>0.231237</v>
+      </c>
+      <c r="I97">
+        <v>0.23500199999999999</v>
+      </c>
+      <c r="J97">
+        <v>0.234073</v>
+      </c>
+      <c r="K97">
+        <v>0.235204</v>
+      </c>
+      <c r="L97">
+        <v>0.231075</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>9.7291600000000006E-2</v>
+      </c>
+      <c r="D98">
+        <v>0.17943700000000001</v>
+      </c>
+      <c r="E98">
+        <v>0.194189</v>
+      </c>
+      <c r="F98">
+        <v>0.204456</v>
+      </c>
+      <c r="G98">
+        <v>0.20441699999999999</v>
+      </c>
+      <c r="H98">
+        <v>0.205625</v>
+      </c>
+      <c r="I98">
+        <v>0.206066</v>
+      </c>
+      <c r="J98">
+        <v>0.21137700000000001</v>
+      </c>
+      <c r="K98">
+        <v>0.20881</v>
+      </c>
+      <c r="L98">
+        <v>0.20879500000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>6.4011399999999996E-2</v>
+      </c>
+      <c r="D99">
+        <v>0.15117800000000001</v>
+      </c>
+      <c r="E99">
+        <v>0.17746700000000001</v>
+      </c>
+      <c r="F99">
+        <v>0.180727</v>
+      </c>
+      <c r="G99">
+        <v>0.18609999999999999</v>
+      </c>
+      <c r="H99">
+        <v>0.18731600000000001</v>
+      </c>
+      <c r="I99">
+        <v>0.19544500000000001</v>
+      </c>
+      <c r="J99">
+        <v>0.19650699999999999</v>
+      </c>
+      <c r="K99">
+        <v>0.19444</v>
+      </c>
+      <c r="L99">
+        <v>0.191582</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>6.51616E-2</v>
+      </c>
+      <c r="D100">
+        <v>0.15246399999999999</v>
+      </c>
+      <c r="E100">
+        <v>0.17307900000000001</v>
+      </c>
+      <c r="F100">
+        <v>0.17983199999999999</v>
+      </c>
+      <c r="G100">
+        <v>0.184917</v>
+      </c>
+      <c r="H100">
+        <v>0.19025400000000001</v>
+      </c>
+      <c r="I100">
+        <v>0.194581</v>
+      </c>
+      <c r="J100">
+        <v>0.195914</v>
+      </c>
+      <c r="K100">
+        <v>0.19258</v>
+      </c>
+      <c r="L100">
+        <v>0.194804</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>9.3909599999999996E-2</v>
+      </c>
+      <c r="D101">
+        <v>0.22602</v>
+      </c>
+      <c r="E101">
+        <v>0.26451599999999997</v>
+      </c>
+      <c r="F101">
+        <v>0.27480100000000002</v>
+      </c>
+      <c r="G101">
+        <v>0.283829</v>
+      </c>
+      <c r="H101">
+        <v>0.29251700000000003</v>
+      </c>
+      <c r="I101">
+        <v>0.29604399999999997</v>
+      </c>
+      <c r="J101">
+        <v>0.29525800000000002</v>
+      </c>
+      <c r="K101">
+        <v>0.298705</v>
+      </c>
+      <c r="L101">
+        <v>0.30148000000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>9.7071299999999999E-2</v>
+      </c>
+      <c r="D102">
+        <v>0.20677400000000001</v>
+      </c>
+      <c r="E102">
+        <v>0.223605</v>
+      </c>
+      <c r="F102">
+        <v>0.233376</v>
+      </c>
+      <c r="G102">
+        <v>0.23857400000000001</v>
+      </c>
+      <c r="H102">
+        <v>0.26279599999999997</v>
+      </c>
+      <c r="I102">
+        <v>0.31044300000000002</v>
+      </c>
+      <c r="J102">
+        <v>0.32000400000000001</v>
+      </c>
+      <c r="K102">
+        <v>0.33349899999999999</v>
+      </c>
+      <c r="L102">
+        <v>0.33822600000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>0.90679565429687503</v>
+      </c>
+      <c r="D104">
+        <v>1.322998046875</v>
+      </c>
+      <c r="E104">
+        <v>1.42406005859375</v>
+      </c>
+      <c r="F104">
+        <v>1.4230102539062499</v>
+      </c>
+      <c r="G104">
+        <v>1.44849853515625</v>
+      </c>
+      <c r="H104">
+        <v>1.4571899414062499</v>
+      </c>
+      <c r="I104">
+        <v>1.46502685546875</v>
+      </c>
+      <c r="J104">
+        <v>1.48072509765625</v>
+      </c>
+      <c r="K104">
+        <v>1.4840087890625</v>
+      </c>
+      <c r="L104">
+        <v>1.4534912109375</v>
+      </c>
+    </row>
+    <row r="105" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>0.90456542968749998</v>
+      </c>
+      <c r="D105">
+        <v>1.35504150390625</v>
+      </c>
+      <c r="E105">
+        <v>1.4303833007812501</v>
+      </c>
+      <c r="F105">
+        <v>1.45604248046875</v>
+      </c>
+      <c r="G105">
+        <v>1.4531616210937499</v>
+      </c>
+      <c r="H105">
+        <v>1.4705444335937501</v>
+      </c>
+      <c r="I105">
+        <v>1.48316650390625</v>
+      </c>
+      <c r="J105">
+        <v>1.485546875</v>
+      </c>
+      <c r="K105">
+        <v>1.4779296875000001</v>
+      </c>
+      <c r="L105">
+        <v>1.5114990234375001</v>
+      </c>
+    </row>
+    <row r="106" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>0.90058227539062496</v>
+      </c>
+      <c r="D106">
+        <v>1.3458496093750001</v>
+      </c>
+      <c r="E106">
+        <v>1.4394775390625001</v>
+      </c>
+      <c r="F106">
+        <v>1.45494384765625</v>
+      </c>
+      <c r="G106">
+        <v>1.4617919921875</v>
+      </c>
+      <c r="H106">
+        <v>1.49327392578125</v>
+      </c>
+      <c r="I106">
+        <v>1.4902709960937499</v>
+      </c>
+      <c r="J106">
+        <v>1.482958984375</v>
+      </c>
+      <c r="K106">
+        <v>1.4827392578125</v>
+      </c>
+      <c r="L106">
+        <v>1.48280029296875</v>
+      </c>
+    </row>
+    <row r="107" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>0.88899536132812496</v>
+      </c>
+      <c r="D107">
+        <v>1.34638671875</v>
+      </c>
+      <c r="E107">
+        <v>1.4425048828125</v>
+      </c>
+      <c r="F107">
+        <v>1.4592041015624999</v>
+      </c>
+      <c r="G107">
+        <v>1.4552001953125</v>
+      </c>
+      <c r="H107">
+        <v>1.4686279296875</v>
+      </c>
+      <c r="I107">
+        <v>1.49908447265625</v>
+      </c>
+      <c r="J107">
+        <v>1.49530029296875</v>
+      </c>
+      <c r="K107">
+        <v>1.48548583984375</v>
+      </c>
+      <c r="L107">
+        <v>1.4773681640625</v>
+      </c>
+    </row>
+    <row r="108" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>0.87279052734374996</v>
+      </c>
+      <c r="D108">
+        <v>1.54429931640625</v>
+      </c>
+      <c r="E108">
+        <v>1.7174560546875</v>
+      </c>
+      <c r="F108">
+        <v>1.7546020507812501</v>
+      </c>
+      <c r="G108">
+        <v>1.79267578125</v>
+      </c>
+      <c r="H108">
+        <v>1.83515625</v>
+      </c>
+      <c r="I108">
+        <v>1.8611816406249999</v>
+      </c>
+      <c r="J108">
+        <v>1.8682006835937499</v>
+      </c>
+      <c r="K108">
+        <v>1.89970703125</v>
+      </c>
+      <c r="L108">
+        <v>1.8951049804687501</v>
+      </c>
+    </row>
+    <row r="109" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>0.88368652343749998</v>
+      </c>
+      <c r="D109">
+        <v>1.4915405273437501</v>
+      </c>
+      <c r="E109">
+        <v>1.639697265625</v>
+      </c>
+      <c r="F109">
+        <v>1.7671630859375</v>
+      </c>
+      <c r="G109">
+        <v>1.8421875000000001</v>
+      </c>
+      <c r="H109">
+        <v>2.0005981445312502</v>
+      </c>
+      <c r="I109">
+        <v>2.3179443359374998</v>
+      </c>
+      <c r="J109">
+        <v>2.3961059570312502</v>
+      </c>
+      <c r="K109">
+        <v>2.5250488281250001</v>
+      </c>
+      <c r="L109">
+        <v>2.5358398437499998</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="P50:P59">
-    <sortCondition descending="1" ref="P50:P59"/>
+  <sortState ref="L50:L59">
+    <sortCondition ref="L50"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4204,8 +5316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFCEFF9-BDC4-452E-A826-DA088C9CCF02}">
   <dimension ref="A1:AC104"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46:H54"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13:AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4228,7 +5340,7 @@
     <col min="20" max="20" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4241,42 +5353,63 @@
       <c r="E1">
         <v>0.5</v>
       </c>
-      <c r="L1" s="13">
-        <v>3147470</v>
-      </c>
-      <c r="M1" s="15">
-        <v>0.80936399999999997</v>
+      <c r="H1">
+        <v>72.295500000000004</v>
+      </c>
+      <c r="I1">
+        <v>105.583</v>
+      </c>
+      <c r="J1">
+        <v>134.68199999999999</v>
+      </c>
+      <c r="K1">
+        <v>151.38800000000001</v>
+      </c>
+      <c r="L1">
+        <v>163.65600000000001</v>
+      </c>
+      <c r="M1">
+        <v>190.124</v>
       </c>
       <c r="N1">
-        <v>55.183999999999997</v>
+        <v>203.95400000000001</v>
       </c>
       <c r="O1">
-        <v>24234.3</v>
+        <v>207.636</v>
       </c>
       <c r="P1">
-        <v>12268.8</v>
-      </c>
-      <c r="Q1">
-        <v>0.602128</v>
-      </c>
-      <c r="T1">
-        <f>O1/8</f>
-        <v>3029.2874999999999</v>
-      </c>
-      <c r="U1">
-        <f>P1/8</f>
-        <v>1533.6</v>
-      </c>
-      <c r="W1">
-        <f>T1/1024</f>
-        <v>2.9582885742187499</v>
-      </c>
-      <c r="X1">
-        <f>U1/1024</f>
-        <v>1.4976562499999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+        <v>210.77699999999999</v>
+      </c>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="11">
+        <v>0.88734400000000002</v>
+      </c>
+      <c r="S1" s="11">
+        <v>0.87348599999999998</v>
+      </c>
+      <c r="T1" s="11">
+        <v>0.86466299999999996</v>
+      </c>
+      <c r="U1" s="11">
+        <v>0.85752600000000001</v>
+      </c>
+      <c r="V1" s="11">
+        <v>0.85157799999999995</v>
+      </c>
+      <c r="W1" s="11">
+        <v>0.83519699999999997</v>
+      </c>
+      <c r="X1" s="11">
+        <v>0.82030899999999995</v>
+      </c>
+      <c r="Y1" s="11">
+        <v>0.82332000000000005</v>
+      </c>
+      <c r="Z1" s="11">
+        <v>0.82244300000000004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4289,42 +5422,63 @@
       <c r="E2">
         <v>3000000</v>
       </c>
-      <c r="L2" s="13">
-        <v>5525130</v>
-      </c>
-      <c r="M2" s="15">
-        <v>0.77664999999999995</v>
+      <c r="H2">
+        <v>73.927400000000006</v>
+      </c>
+      <c r="I2">
+        <v>105.22199999999999</v>
+      </c>
+      <c r="J2">
+        <v>135.08699999999999</v>
+      </c>
+      <c r="K2">
+        <v>152.411</v>
+      </c>
+      <c r="L2">
+        <v>163.78800000000001</v>
+      </c>
+      <c r="M2">
+        <v>189.81</v>
       </c>
       <c r="N2">
-        <v>82.62</v>
+        <v>202.649</v>
       </c>
       <c r="O2">
-        <v>24014.1</v>
+        <v>207.31</v>
       </c>
       <c r="P2">
-        <v>13354.5</v>
-      </c>
-      <c r="Q2">
-        <v>0.49448199999999998</v>
-      </c>
-      <c r="T2">
-        <f t="shared" ref="T2:T9" si="0">O2/8</f>
-        <v>3001.7624999999998</v>
-      </c>
-      <c r="U2">
-        <f t="shared" ref="U2:U9" si="1">P2/8</f>
-        <v>1669.3125</v>
-      </c>
-      <c r="W2">
-        <f t="shared" ref="W2:X9" si="2">T2/1024</f>
-        <v>2.9314086914062498</v>
-      </c>
-      <c r="X2">
-        <f t="shared" si="2"/>
-        <v>1.63018798828125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>210.13900000000001</v>
+      </c>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="14">
+        <v>0.88690000000000002</v>
+      </c>
+      <c r="S2" s="14">
+        <v>0.87439900000000004</v>
+      </c>
+      <c r="T2" s="14">
+        <v>0.86404700000000001</v>
+      </c>
+      <c r="U2" s="14">
+        <v>0.85128199999999998</v>
+      </c>
+      <c r="V2" s="14">
+        <v>0.84426800000000002</v>
+      </c>
+      <c r="W2" s="14">
+        <v>0.83307399999999998</v>
+      </c>
+      <c r="X2" s="14">
+        <v>0.82322099999999998</v>
+      </c>
+      <c r="Y2" s="14">
+        <v>0.81815000000000004</v>
+      </c>
+      <c r="Z2" s="14">
+        <v>0.81711199999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -4337,291 +5491,279 @@
       <c r="E3">
         <v>0.5</v>
       </c>
-      <c r="L3" s="13">
-        <v>7973840</v>
-      </c>
-      <c r="M3" s="15">
-        <v>0.76019800000000004</v>
+      <c r="H3">
+        <v>53.139800000000001</v>
+      </c>
+      <c r="I3">
+        <v>84.227999999999994</v>
+      </c>
+      <c r="J3">
+        <v>116.381</v>
+      </c>
+      <c r="K3">
+        <v>134.93100000000001</v>
+      </c>
+      <c r="L3">
+        <v>148.24799999999999</v>
+      </c>
+      <c r="M3">
+        <v>178.14699999999999</v>
       </c>
       <c r="N3">
-        <v>110.998</v>
+        <v>190.834</v>
       </c>
       <c r="O3">
-        <v>24604.1</v>
+        <v>195.82499999999999</v>
       </c>
       <c r="P3">
-        <v>14769.2</v>
-      </c>
-      <c r="Q3">
-        <v>0.40062399999999998</v>
-      </c>
-      <c r="T3">
-        <f t="shared" si="0"/>
-        <v>3075.5124999999998</v>
-      </c>
-      <c r="U3">
-        <f t="shared" si="1"/>
-        <v>1846.15</v>
-      </c>
-      <c r="W3">
-        <f t="shared" si="2"/>
-        <v>3.0034301757812498</v>
-      </c>
-      <c r="X3">
-        <f t="shared" si="2"/>
-        <v>1.8028808593750001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>197.797</v>
+      </c>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="14">
+        <v>0.88537699999999997</v>
+      </c>
+      <c r="S3" s="14">
+        <v>0.873112</v>
+      </c>
+      <c r="T3" s="14">
+        <v>0.86351900000000004</v>
+      </c>
+      <c r="U3" s="14">
+        <v>0.854931</v>
+      </c>
+      <c r="V3" s="14">
+        <v>0.84540000000000004</v>
+      </c>
+      <c r="W3" s="14">
+        <v>0.83163699999999996</v>
+      </c>
+      <c r="X3" s="14">
+        <v>0.82200099999999998</v>
+      </c>
+      <c r="Y3" s="14">
+        <v>0.81847099999999995</v>
+      </c>
+      <c r="Z3" s="14">
+        <v>0.81829799999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>439</v>
       </c>
-      <c r="L4" s="13">
-        <v>9853630</v>
-      </c>
-      <c r="M4" s="15">
-        <v>0.74452399999999996</v>
+      <c r="H4">
+        <v>53.035800000000002</v>
+      </c>
+      <c r="I4">
+        <v>84.400700000000001</v>
+      </c>
+      <c r="J4">
+        <v>116.508</v>
+      </c>
+      <c r="K4">
+        <v>135.00299999999999</v>
+      </c>
+      <c r="L4">
+        <v>147.06100000000001</v>
+      </c>
+      <c r="M4">
+        <v>177.643</v>
       </c>
       <c r="N4">
-        <v>128.59700000000001</v>
+        <v>191.15600000000001</v>
       </c>
       <c r="O4">
-        <v>24337.8</v>
+        <v>196.53299999999999</v>
       </c>
       <c r="P4">
-        <v>15151.9</v>
-      </c>
-      <c r="Q4">
-        <v>0.345688</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="0"/>
-        <v>3042.2249999999999</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="1"/>
-        <v>1893.9875</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="2"/>
-        <v>2.9709228515624999</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="2"/>
-        <v>1.84959716796875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+        <v>198.39099999999999</v>
+      </c>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="14">
+        <v>0.88543899999999998</v>
+      </c>
+      <c r="S4" s="14">
+        <v>0.87494700000000003</v>
+      </c>
+      <c r="T4" s="14">
+        <v>0.86276699999999995</v>
+      </c>
+      <c r="U4" s="14">
+        <v>0.85325399999999996</v>
+      </c>
+      <c r="V4" s="14">
+        <v>0.85139900000000002</v>
+      </c>
+      <c r="W4" s="14">
+        <v>0.831511</v>
+      </c>
+      <c r="X4" s="14">
+        <v>0.82407399999999997</v>
+      </c>
+      <c r="Y4" s="14">
+        <v>0.81592200000000004</v>
+      </c>
+      <c r="Z4" s="14">
+        <v>0.816052</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>0.68500000000000005</v>
       </c>
-      <c r="L5" s="13">
-        <v>11123800</v>
-      </c>
-      <c r="M5" s="15">
-        <v>0.73359799999999997</v>
+      <c r="H5">
+        <v>46.996299999999998</v>
+      </c>
+      <c r="I5">
+        <v>76.061099999999996</v>
+      </c>
+      <c r="J5">
+        <v>105.521</v>
+      </c>
+      <c r="K5">
+        <v>124.61799999999999</v>
+      </c>
+      <c r="L5">
+        <v>136.58699999999999</v>
+      </c>
+      <c r="M5">
+        <v>166.33699999999999</v>
       </c>
       <c r="N5">
-        <v>139.578</v>
+        <v>179.77500000000001</v>
       </c>
       <c r="O5">
-        <v>24556.799999999999</v>
+        <v>185.39400000000001</v>
       </c>
       <c r="P5">
-        <v>15742.1</v>
-      </c>
-      <c r="Q5">
-        <v>0.31342900000000001</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="0"/>
-        <v>3069.6</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="1"/>
-        <v>1967.7625</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="2"/>
-        <v>2.9976562499999999</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="2"/>
-        <v>1.92164306640625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>187.61600000000001</v>
+      </c>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="14">
+        <v>0.85577899999999996</v>
+      </c>
+      <c r="S5" s="14">
+        <v>0.83755000000000002</v>
+      </c>
+      <c r="T5" s="14">
+        <v>0.81972999999999996</v>
+      </c>
+      <c r="U5" s="14">
+        <v>0.81187100000000001</v>
+      </c>
+      <c r="V5" s="14">
+        <v>0.80679299999999998</v>
+      </c>
+      <c r="W5" s="14">
+        <v>0.78113299999999997</v>
+      </c>
+      <c r="X5" s="14">
+        <v>0.77470300000000003</v>
+      </c>
+      <c r="Y5" s="14">
+        <v>0.77432699999999999</v>
+      </c>
+      <c r="Z5" s="14">
+        <v>0.76668599999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="13">
-        <v>15328500</v>
-      </c>
-      <c r="M6" s="15">
+      <c r="H6">
+        <v>55.183999999999997</v>
+      </c>
+      <c r="I6">
+        <v>82.62</v>
+      </c>
+      <c r="J6">
+        <v>110.998</v>
+      </c>
+      <c r="K6">
+        <v>128.59700000000001</v>
+      </c>
+      <c r="L6">
+        <v>139.578</v>
+      </c>
+      <c r="M6">
+        <v>167.66200000000001</v>
+      </c>
+      <c r="N6">
+        <v>180.04400000000001</v>
+      </c>
+      <c r="O6">
+        <v>185.542</v>
+      </c>
+      <c r="P6">
+        <v>187.64699999999999</v>
+      </c>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="15">
+        <v>0.80936399999999997</v>
+      </c>
+      <c r="S6" s="15">
+        <v>0.77664999999999995</v>
+      </c>
+      <c r="T6" s="15">
+        <v>0.76019800000000004</v>
+      </c>
+      <c r="U6" s="15">
+        <v>0.74452399999999996</v>
+      </c>
+      <c r="V6" s="15">
+        <v>0.73359799999999997</v>
+      </c>
+      <c r="W6" s="15">
         <v>0.69400600000000001</v>
       </c>
-      <c r="N6">
-        <v>167.66200000000001</v>
-      </c>
-      <c r="O6">
-        <v>24532.799999999999</v>
-      </c>
-      <c r="P6">
-        <v>16814.7</v>
-      </c>
-      <c r="Q6">
-        <v>0.239956</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="0"/>
-        <v>3066.6</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="1"/>
-        <v>2101.8375000000001</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="2"/>
-        <v>2.9947265624999999</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="2"/>
-        <v>2.0525756835937501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X6" s="15">
+        <v>0.67244599999999999</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>0.650254</v>
+      </c>
+      <c r="Z6" s="15">
+        <v>0.64632400000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <v>1.2</v>
       </c>
-      <c r="L7" s="13">
-        <v>17703600</v>
-      </c>
-      <c r="M7" s="15">
-        <v>0.67244599999999999</v>
-      </c>
-      <c r="N7">
-        <v>180.04400000000001</v>
-      </c>
-      <c r="O7">
-        <v>24611.200000000001</v>
-      </c>
-      <c r="P7">
-        <v>17439.400000000001</v>
-      </c>
-      <c r="Q7">
-        <v>0.20905299999999999</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="0"/>
-        <v>3076.4</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="1"/>
-        <v>2179.9250000000002</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="2"/>
-        <v>3.0042968750000001</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="2"/>
-        <v>2.1288330078125002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L7" s="13"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="L8" s="13">
-        <v>19468700</v>
-      </c>
-      <c r="M8" s="15">
-        <v>0.650254</v>
-      </c>
-      <c r="N8">
-        <v>185.542</v>
-      </c>
-      <c r="O8">
-        <v>24180.2</v>
-      </c>
-      <c r="P8">
-        <v>17394.099999999999</v>
-      </c>
-      <c r="Q8">
-        <v>0.194522</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="0"/>
-        <v>3022.5250000000001</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="1"/>
-        <v>2174.2624999999998</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="2"/>
-        <v>2.9516845703125001</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="2"/>
-        <v>2.1233032226562498</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L8" s="13"/>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9">
         <v>0.9</v>
       </c>
-      <c r="L9" s="13">
-        <v>19886500</v>
-      </c>
-      <c r="M9" s="15">
-        <v>0.64632400000000001</v>
-      </c>
-      <c r="N9">
-        <v>187.64699999999999</v>
-      </c>
-      <c r="O9">
-        <v>24382.400000000001</v>
-      </c>
-      <c r="P9">
-        <v>17669</v>
-      </c>
-      <c r="Q9">
-        <v>0.19017200000000001</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="0"/>
-        <v>3047.8</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="1"/>
-        <v>2208.625</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="2"/>
-        <v>2.9763671875000002</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="2"/>
-        <v>2.1568603515625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L9" s="13"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -4634,10 +5776,10 @@
       <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="19"/>
+      <c r="K11" s="22"/>
       <c r="L11" t="s">
         <v>12</v>
       </c>
@@ -4648,7 +5790,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
@@ -4673,10 +5815,10 @@
       <c r="H12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="17"/>
+      <c r="K12" s="20"/>
       <c r="L12" s="9" t="s">
         <v>4</v>
       </c>
@@ -4699,7 +5841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>100</v>
       </c>
@@ -4743,8 +5885,35 @@
       <c r="R13" s="13">
         <v>3827560</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T13" s="13">
+        <v>3889160</v>
+      </c>
+      <c r="U13" s="13">
+        <v>3996410</v>
+      </c>
+      <c r="V13" s="13">
+        <v>4024010</v>
+      </c>
+      <c r="W13" s="13">
+        <v>4025040</v>
+      </c>
+      <c r="X13" s="13">
+        <v>4168780</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>4189350</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>4205410</v>
+      </c>
+      <c r="AA13" s="13">
+        <v>4248530</v>
+      </c>
+      <c r="AB13" s="13">
+        <v>4250110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>250</v>
       </c>
@@ -4774,7 +5943,7 @@
         <v>3996410</v>
       </c>
       <c r="N14" s="13">
-        <v>4028370</v>
+        <v>3998810</v>
       </c>
       <c r="O14" s="13">
         <v>3591080</v>
@@ -4788,8 +5957,35 @@
       <c r="R14" s="13">
         <v>4025720</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T14" s="13">
+        <v>3897760</v>
+      </c>
+      <c r="U14" s="13">
+        <v>3998810</v>
+      </c>
+      <c r="V14" s="13">
+        <v>4028370</v>
+      </c>
+      <c r="W14" s="13">
+        <v>4131450</v>
+      </c>
+      <c r="X14" s="13">
+        <v>4137850</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>4174110</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>4198230</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>4211560</v>
+      </c>
+      <c r="AB14" s="13">
+        <v>4239880</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>500</v>
       </c>
@@ -4819,10 +6015,10 @@
         <v>4024010</v>
       </c>
       <c r="N15" s="13">
-        <v>4137850</v>
+        <v>4028370</v>
       </c>
       <c r="O15" s="13">
-        <v>3875990</v>
+        <v>3852760</v>
       </c>
       <c r="P15" s="13">
         <v>3741890</v>
@@ -4831,10 +6027,37 @@
         <v>4140770</v>
       </c>
       <c r="R15" s="13">
-        <v>4138040</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+        <v>4084960</v>
+      </c>
+      <c r="T15" s="13">
+        <v>3489330</v>
+      </c>
+      <c r="U15" s="13">
+        <v>3591080</v>
+      </c>
+      <c r="V15" s="13">
+        <v>3852760</v>
+      </c>
+      <c r="W15" s="13">
+        <v>3875990</v>
+      </c>
+      <c r="X15" s="13">
+        <v>3956030</v>
+      </c>
+      <c r="Y15" s="13">
+        <v>4008660</v>
+      </c>
+      <c r="Z15" s="13">
+        <v>4085790</v>
+      </c>
+      <c r="AA15" s="13">
+        <v>4112850</v>
+      </c>
+      <c r="AB15" s="13">
+        <v>4173810</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>750</v>
       </c>
@@ -4867,16 +6090,43 @@
         <v>4131450</v>
       </c>
       <c r="O16" s="13">
-        <v>3852760</v>
+        <v>3875990</v>
       </c>
       <c r="P16" s="13">
         <v>3925990</v>
       </c>
       <c r="Q16" s="13">
-        <v>4157550</v>
+        <v>4144040</v>
       </c>
       <c r="R16" s="13">
-        <v>4084960</v>
+        <v>4138040</v>
+      </c>
+      <c r="T16" s="13">
+        <v>3440670</v>
+      </c>
+      <c r="U16" s="13">
+        <v>3648550</v>
+      </c>
+      <c r="V16" s="13">
+        <v>3741890</v>
+      </c>
+      <c r="W16" s="13">
+        <v>3925990</v>
+      </c>
+      <c r="X16" s="13">
+        <v>3962690</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>4047420</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>4069050</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>4135940</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>4161520</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -4906,10 +6156,10 @@
         <v>1000</v>
       </c>
       <c r="M17" s="13">
-        <v>4189350</v>
+        <v>4168780</v>
       </c>
       <c r="N17" s="13">
-        <v>4174110</v>
+        <v>4137850</v>
       </c>
       <c r="O17" s="13">
         <v>3956030</v>
@@ -4918,10 +6168,37 @@
         <v>3962690</v>
       </c>
       <c r="Q17" s="13">
+        <v>4157550</v>
+      </c>
+      <c r="R17" s="13">
+        <v>4252800</v>
+      </c>
+      <c r="T17" s="13">
+        <v>3846790</v>
+      </c>
+      <c r="U17" s="13">
+        <v>3979200</v>
+      </c>
+      <c r="V17" s="13">
+        <v>4140770</v>
+      </c>
+      <c r="W17" s="13">
+        <v>4144040</v>
+      </c>
+      <c r="X17" s="13">
+        <v>4157550</v>
+      </c>
+      <c r="Y17" s="13">
+        <v>4213850</v>
+      </c>
+      <c r="Z17" s="13">
         <v>4224360</v>
       </c>
-      <c r="R17" s="13">
-        <v>4198570</v>
+      <c r="AA17" s="13">
+        <v>4229460</v>
+      </c>
+      <c r="AB17" s="13">
+        <v>4244860</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -4951,22 +6228,49 @@
         <v>2500</v>
       </c>
       <c r="M18" s="13">
-        <v>4250110</v>
+        <v>4189350</v>
       </c>
       <c r="N18" s="13">
-        <v>4198230</v>
+        <v>4174110</v>
       </c>
       <c r="O18" s="13">
-        <v>4085790</v>
+        <v>4008660</v>
       </c>
       <c r="P18" s="13">
         <v>4047420</v>
       </c>
       <c r="Q18" s="13">
-        <v>4144040</v>
+        <v>4213850</v>
       </c>
       <c r="R18" s="13">
-        <v>4265880</v>
+        <v>4308570</v>
+      </c>
+      <c r="T18" s="13">
+        <v>3827560</v>
+      </c>
+      <c r="U18" s="13">
+        <v>4025720</v>
+      </c>
+      <c r="V18" s="13">
+        <v>4084960</v>
+      </c>
+      <c r="W18" s="13">
+        <v>4138040</v>
+      </c>
+      <c r="X18" s="13">
+        <v>4252800</v>
+      </c>
+      <c r="Y18" s="13">
+        <v>4308570</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>4357000</v>
+      </c>
+      <c r="AA18" s="13">
+        <v>4356110</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>4375880</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -4996,23 +6300,29 @@
         <v>5000</v>
       </c>
       <c r="M19" s="13">
-        <v>4248530</v>
+        <v>4205410</v>
       </c>
       <c r="N19" s="13">
-        <v>4211560</v>
+        <v>4198230</v>
       </c>
       <c r="O19" s="13">
-        <v>4112850</v>
+        <v>4085790</v>
       </c>
       <c r="P19" s="13">
         <v>4069050</v>
       </c>
       <c r="Q19" s="13">
-        <v>4244860</v>
+        <v>4224360</v>
       </c>
       <c r="R19" s="13">
-        <v>4256110</v>
-      </c>
+        <v>4357000</v>
+      </c>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B20">
@@ -5041,13 +6351,13 @@
         <v>7500</v>
       </c>
       <c r="M20" s="13">
-        <v>4205410</v>
+        <v>4248530</v>
       </c>
       <c r="N20" s="13">
-        <v>4239880</v>
+        <v>4211560</v>
       </c>
       <c r="O20" s="13">
-        <v>4008660</v>
+        <v>4112850</v>
       </c>
       <c r="P20" s="13">
         <v>4135940</v>
@@ -5056,8 +6366,14 @@
         <v>4229460</v>
       </c>
       <c r="R20" s="13">
-        <v>4152800</v>
-      </c>
+        <v>4356110</v>
+      </c>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B21">
@@ -5086,10 +6402,10 @@
         <v>10000</v>
       </c>
       <c r="M21" s="13">
-        <v>4168780</v>
+        <v>4250110</v>
       </c>
       <c r="N21" s="13">
-        <v>3998810</v>
+        <v>4239880</v>
       </c>
       <c r="O21" s="13">
         <v>4173810</v>
@@ -5098,11 +6414,17 @@
         <v>4161520</v>
       </c>
       <c r="Q21" s="13">
-        <v>4213850</v>
+        <v>4244860</v>
       </c>
       <c r="R21" s="13">
-        <v>4237000</v>
-      </c>
+        <v>4375880</v>
+      </c>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J22" s="7"/>
@@ -5132,10 +6454,10 @@
       <c r="H23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="J23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="17"/>
+      <c r="K23" s="20"/>
       <c r="L23" s="9" t="s">
         <v>4</v>
       </c>
@@ -5201,11 +6523,33 @@
       <c r="R24">
         <v>12.9991</v>
       </c>
-      <c r="T24" s="13"/>
-      <c r="U24" s="15"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
+      <c r="T24">
+        <v>13.239599999999999</v>
+      </c>
+      <c r="U24">
+        <v>13.491300000000001</v>
+      </c>
+      <c r="V24">
+        <v>13.605600000000001</v>
+      </c>
+      <c r="W24">
+        <v>13.629200000000001</v>
+      </c>
+      <c r="X24">
+        <v>14.004300000000001</v>
+      </c>
+      <c r="Y24">
+        <v>14.027100000000001</v>
+      </c>
+      <c r="Z24">
+        <v>14.1311</v>
+      </c>
+      <c r="AA24">
+        <v>14.2158</v>
+      </c>
+      <c r="AB24">
+        <v>14.2295</v>
+      </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B25">
@@ -5236,7 +6580,7 @@
         <v>13.491300000000001</v>
       </c>
       <c r="N25">
-        <v>13.6174</v>
+        <v>13.4412</v>
       </c>
       <c r="O25">
         <v>12.6318</v>
@@ -5250,11 +6594,33 @@
       <c r="R25">
         <v>13.4876</v>
       </c>
-      <c r="T25" s="13"/>
-      <c r="U25" s="15"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
+      <c r="T25">
+        <v>13.2453</v>
+      </c>
+      <c r="U25">
+        <v>13.4412</v>
+      </c>
+      <c r="V25">
+        <v>13.6174</v>
+      </c>
+      <c r="W25">
+        <v>13.8611</v>
+      </c>
+      <c r="X25">
+        <v>13.873799999999999</v>
+      </c>
+      <c r="Y25">
+        <v>14.0253</v>
+      </c>
+      <c r="Z25">
+        <v>14.1007</v>
+      </c>
+      <c r="AA25">
+        <v>14.1563</v>
+      </c>
+      <c r="AB25">
+        <v>14.218</v>
+      </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B26">
@@ -5282,13 +6648,13 @@
         <v>500</v>
       </c>
       <c r="M26">
-        <v>13.629200000000001</v>
+        <v>13.605600000000001</v>
       </c>
       <c r="N26">
-        <v>13.873799999999999</v>
+        <v>13.6174</v>
       </c>
       <c r="O26">
-        <v>13.2889</v>
+        <v>13.2057</v>
       </c>
       <c r="P26">
         <v>12.9931</v>
@@ -5297,13 +6663,35 @@
         <v>13.834</v>
       </c>
       <c r="R26">
-        <v>13.8422</v>
-      </c>
-      <c r="T26" s="13"/>
-      <c r="U26" s="15"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
+        <v>13.7027</v>
+      </c>
+      <c r="T26">
+        <v>12.411799999999999</v>
+      </c>
+      <c r="U26">
+        <v>12.6318</v>
+      </c>
+      <c r="V26">
+        <v>13.2057</v>
+      </c>
+      <c r="W26">
+        <v>13.2889</v>
+      </c>
+      <c r="X26">
+        <v>13.474</v>
+      </c>
+      <c r="Y26">
+        <v>13.5868</v>
+      </c>
+      <c r="Z26">
+        <v>13.8155</v>
+      </c>
+      <c r="AA26">
+        <v>13.881</v>
+      </c>
+      <c r="AB26">
+        <v>14.0197</v>
+      </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B27">
@@ -5331,32 +6719,50 @@
         <v>750</v>
       </c>
       <c r="M27">
-        <v>13.605600000000001</v>
+        <v>13.629200000000001</v>
       </c>
       <c r="N27">
         <v>13.8611</v>
       </c>
       <c r="O27">
-        <v>13.2057</v>
+        <v>13.2889</v>
       </c>
       <c r="P27">
         <v>13.381500000000001</v>
       </c>
       <c r="Q27">
-        <v>13.908899999999999</v>
+        <v>13.854699999999999</v>
       </c>
       <c r="R27">
-        <v>13.7027</v>
-      </c>
-      <c r="T27" s="13"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
+        <v>13.8422</v>
+      </c>
+      <c r="T27">
+        <v>12.327999999999999</v>
+      </c>
+      <c r="U27">
+        <v>12.7933</v>
+      </c>
+      <c r="V27">
+        <v>12.9931</v>
+      </c>
+      <c r="W27">
+        <v>13.381500000000001</v>
+      </c>
+      <c r="X27">
+        <v>13.4801</v>
+      </c>
+      <c r="Y27">
+        <v>13.6774</v>
+      </c>
+      <c r="Z27">
+        <v>13.7021</v>
+      </c>
+      <c r="AA27">
+        <v>13.913500000000001</v>
+      </c>
+      <c r="AB27">
+        <v>13.983499999999999</v>
+      </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B28">
@@ -5384,10 +6790,10 @@
         <v>1000</v>
       </c>
       <c r="M28">
-        <v>14.027100000000001</v>
+        <v>14.004300000000001</v>
       </c>
       <c r="N28">
-        <v>14.0253</v>
+        <v>13.873799999999999</v>
       </c>
       <c r="O28">
         <v>13.474</v>
@@ -5396,16 +6802,38 @@
         <v>13.4801</v>
       </c>
       <c r="Q28">
+        <v>13.908899999999999</v>
+      </c>
+      <c r="R28">
+        <v>13.9091</v>
+      </c>
+      <c r="T28">
+        <v>13.0512</v>
+      </c>
+      <c r="U28">
+        <v>13.434900000000001</v>
+      </c>
+      <c r="V28">
+        <v>13.834</v>
+      </c>
+      <c r="W28">
+        <v>13.854699999999999</v>
+      </c>
+      <c r="X28">
+        <v>13.908899999999999</v>
+      </c>
+      <c r="Y28">
+        <v>14.051299999999999</v>
+      </c>
+      <c r="Z28">
         <v>14.119899999999999</v>
       </c>
-      <c r="R28">
-        <v>14.0571</v>
-      </c>
-      <c r="T28" s="13"/>
-      <c r="U28" s="15"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
+      <c r="AA28">
+        <v>14.122</v>
+      </c>
+      <c r="AB28">
+        <v>14.1562</v>
+      </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B29">
@@ -5433,28 +6861,50 @@
         <v>2500</v>
       </c>
       <c r="M29">
-        <v>14.2295</v>
+        <v>14.027100000000001</v>
       </c>
       <c r="N29">
-        <v>14.1007</v>
+        <v>14.0253</v>
       </c>
       <c r="O29">
-        <v>13.8155</v>
+        <v>13.5868</v>
       </c>
       <c r="P29">
         <v>13.6774</v>
       </c>
       <c r="Q29">
-        <v>13.854699999999999</v>
+        <v>14.051299999999999</v>
       </c>
       <c r="R29">
+        <v>14.0571</v>
+      </c>
+      <c r="T29">
+        <v>12.9991</v>
+      </c>
+      <c r="U29">
+        <v>13.4876</v>
+      </c>
+      <c r="V29">
+        <v>13.7027</v>
+      </c>
+      <c r="W29">
+        <v>13.8422</v>
+      </c>
+      <c r="X29">
+        <v>13.9091</v>
+      </c>
+      <c r="Y29">
+        <v>14.0571</v>
+      </c>
+      <c r="Z29">
+        <v>14.156599999999999</v>
+      </c>
+      <c r="AA29">
+        <v>14.2189</v>
+      </c>
+      <c r="AB29">
         <v>14.2582</v>
       </c>
-      <c r="T29" s="13"/>
-      <c r="U29" s="15"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B30">
@@ -5482,22 +6932,22 @@
         <v>5000</v>
       </c>
       <c r="M30">
-        <v>14.2158</v>
+        <v>14.1311</v>
       </c>
       <c r="N30">
-        <v>14.1563</v>
+        <v>14.1007</v>
       </c>
       <c r="O30">
-        <v>13.881</v>
+        <v>13.8155</v>
       </c>
       <c r="P30">
         <v>13.7021</v>
       </c>
       <c r="Q30">
-        <v>14.1562</v>
+        <v>14.119899999999999</v>
       </c>
       <c r="R30">
-        <v>14.2189</v>
+        <v>14.156599999999999</v>
       </c>
       <c r="T30" s="13"/>
       <c r="U30" s="15"/>
@@ -5528,13 +6978,13 @@
         <v>7500</v>
       </c>
       <c r="M31">
-        <v>14.1311</v>
+        <v>14.2158</v>
       </c>
       <c r="N31">
-        <v>14.218</v>
+        <v>14.1563</v>
       </c>
       <c r="O31">
-        <v>13.5868</v>
+        <v>13.881</v>
       </c>
       <c r="P31">
         <v>13.913500000000001</v>
@@ -5543,7 +6993,7 @@
         <v>14.122</v>
       </c>
       <c r="R31">
-        <v>13.9091</v>
+        <v>14.2189</v>
       </c>
       <c r="T31" s="13"/>
       <c r="U31" s="15"/>
@@ -5574,10 +7024,10 @@
         <v>10000</v>
       </c>
       <c r="M32">
-        <v>14.004300000000001</v>
+        <v>14.2295</v>
       </c>
       <c r="N32">
-        <v>13.4412</v>
+        <v>14.218</v>
       </c>
       <c r="O32">
         <v>14.0197</v>
@@ -5586,19 +7036,19 @@
         <v>13.983499999999999</v>
       </c>
       <c r="Q32">
-        <v>14.051299999999999</v>
+        <v>14.1562</v>
       </c>
       <c r="R32">
-        <v>14.156599999999999</v>
+        <v>14.2582</v>
       </c>
       <c r="T32" s="13"/>
       <c r="U32" s="15"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="T33" s="13"/>
       <c r="U33" s="14"/>
     </row>
-    <row r="34" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>23</v>
       </c>
@@ -5623,10 +7073,10 @@
       <c r="H34" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J34" s="17" t="s">
+      <c r="J34" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K34" s="17"/>
+      <c r="K34" s="20"/>
       <c r="L34" s="9" t="s">
         <v>4</v>
       </c>
@@ -5651,7 +7101,7 @@
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>100</v>
       </c>
@@ -5694,10 +7144,35 @@
       <c r="R35" s="15">
         <v>1.65592E-2</v>
       </c>
-      <c r="T35" s="13"/>
-      <c r="U35" s="14"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T35" s="11">
+        <v>2.02647E-2</v>
+      </c>
+      <c r="U35" s="11">
+        <v>1.4607800000000001E-2</v>
+      </c>
+      <c r="V35" s="11">
+        <v>1.34459E-2</v>
+      </c>
+      <c r="W35" s="11">
+        <v>1.27283E-2</v>
+      </c>
+      <c r="X35" s="11">
+        <v>5.2796900000000001E-3</v>
+      </c>
+      <c r="Y35" s="11">
+        <v>5.0083899999999997E-3</v>
+      </c>
+      <c r="Z35" s="11">
+        <v>4.1313499999999998E-3</v>
+      </c>
+      <c r="AA35" s="11">
+        <v>2.7828200000000001E-3</v>
+      </c>
+      <c r="AB35" s="11">
+        <v>2.07814E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>250</v>
       </c>
@@ -5723,7 +7198,7 @@
         <v>250</v>
       </c>
       <c r="M36" s="11">
-        <v>1.27283E-2</v>
+        <v>1.4607800000000001E-2</v>
       </c>
       <c r="N36" s="14">
         <v>1.24942E-2</v>
@@ -5740,10 +7215,35 @@
       <c r="R36" s="15">
         <v>7.6535099999999997E-3</v>
       </c>
-      <c r="T36" s="13"/>
-      <c r="U36" s="14"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T36" s="14">
+        <v>1.8500900000000001E-2</v>
+      </c>
+      <c r="U36" s="14">
+        <v>1.24942E-2</v>
+      </c>
+      <c r="V36" s="14">
+        <v>1.1269400000000001E-2</v>
+      </c>
+      <c r="W36" s="14">
+        <v>6.6553599999999999E-3</v>
+      </c>
+      <c r="X36" s="14">
+        <v>6.5419099999999997E-3</v>
+      </c>
+      <c r="Y36" s="14">
+        <v>5.4635300000000003E-3</v>
+      </c>
+      <c r="Z36" s="14">
+        <v>4.1441999999999998E-3</v>
+      </c>
+      <c r="AA36" s="14">
+        <v>2.7854300000000002E-3</v>
+      </c>
+      <c r="AB36" s="14">
+        <v>2.4920200000000002E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>500</v>
       </c>
@@ -5769,13 +7269,13 @@
         <v>500</v>
       </c>
       <c r="M37" s="11">
-        <v>1.4607800000000001E-2</v>
+        <v>1.34459E-2</v>
       </c>
       <c r="N37" s="14">
-        <v>6.5419099999999997E-3</v>
+        <v>1.1269400000000001E-2</v>
       </c>
       <c r="O37" s="14">
-        <v>2.5987300000000001E-2</v>
+        <v>2.8225400000000001E-2</v>
       </c>
       <c r="P37" s="14">
         <v>3.7411600000000003E-2</v>
@@ -5784,12 +7284,37 @@
         <v>2.1802000000000002E-3</v>
       </c>
       <c r="R37" s="15">
-        <v>2.5390999999999999E-3</v>
-      </c>
-      <c r="T37" s="13"/>
-      <c r="U37" s="14"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1.8061100000000001E-3</v>
+      </c>
+      <c r="T37" s="14">
+        <v>6.29831E-2</v>
+      </c>
+      <c r="U37" s="14">
+        <v>5.2609999999999997E-2</v>
+      </c>
+      <c r="V37" s="14">
+        <v>2.8225400000000001E-2</v>
+      </c>
+      <c r="W37" s="14">
+        <v>2.5987300000000001E-2</v>
+      </c>
+      <c r="X37" s="14">
+        <v>1.9443800000000001E-2</v>
+      </c>
+      <c r="Y37" s="14">
+        <v>1.5798300000000001E-2</v>
+      </c>
+      <c r="Z37" s="14">
+        <v>1.2135200000000001E-2</v>
+      </c>
+      <c r="AA37" s="14">
+        <v>9.6132300000000004E-3</v>
+      </c>
+      <c r="AB37" s="14">
+        <v>5.4552300000000001E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>750</v>
       </c>
@@ -5815,13 +7340,13 @@
         <v>750</v>
       </c>
       <c r="M38" s="11">
-        <v>1.34459E-2</v>
+        <v>1.27283E-2</v>
       </c>
       <c r="N38" s="14">
         <v>6.6553599999999999E-3</v>
       </c>
       <c r="O38" s="14">
-        <v>2.8225400000000001E-2</v>
+        <v>2.5987300000000001E-2</v>
       </c>
       <c r="P38" s="14">
         <v>2.1468999999999999E-2</v>
@@ -5830,12 +7355,37 @@
         <v>1.3664199999999999E-3</v>
       </c>
       <c r="R38" s="15">
-        <v>3.8061100000000001E-3</v>
-      </c>
-      <c r="T38" s="13"/>
-      <c r="U38" s="14"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1.2390999999999999E-3</v>
+      </c>
+      <c r="T38" s="14">
+        <v>6.9739099999999998E-2</v>
+      </c>
+      <c r="U38" s="14">
+        <v>4.7816200000000003E-2</v>
+      </c>
+      <c r="V38" s="14">
+        <v>3.7411600000000003E-2</v>
+      </c>
+      <c r="W38" s="14">
+        <v>2.1468999999999999E-2</v>
+      </c>
+      <c r="X38" s="14">
+        <v>2.0086900000000001E-2</v>
+      </c>
+      <c r="Y38" s="14">
+        <v>1.42439E-2</v>
+      </c>
+      <c r="Z38" s="14">
+        <v>1.19411E-2</v>
+      </c>
+      <c r="AA38" s="14">
+        <v>9.0308100000000002E-3</v>
+      </c>
+      <c r="AB38" s="14">
+        <v>6.9472700000000002E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>1000</v>
       </c>
@@ -5861,10 +7411,10 @@
         <v>1000</v>
       </c>
       <c r="M39" s="11">
-        <v>4.1313499999999998E-3</v>
+        <v>5.2796900000000001E-3</v>
       </c>
       <c r="N39" s="14">
-        <v>5.4635300000000003E-3</v>
+        <v>6.5419099999999997E-3</v>
       </c>
       <c r="O39" s="14">
         <v>1.9443800000000001E-2</v>
@@ -5873,15 +7423,40 @@
         <v>2.0086900000000001E-2</v>
       </c>
       <c r="Q39" s="14">
+        <v>1.3664199999999999E-3</v>
+      </c>
+      <c r="R39" s="15">
+        <v>1.15836E-3</v>
+      </c>
+      <c r="T39" s="14">
+        <v>1.81253E-2</v>
+      </c>
+      <c r="U39" s="14">
+        <v>9.8913899999999999E-3</v>
+      </c>
+      <c r="V39" s="14">
+        <v>2.1802000000000002E-3</v>
+      </c>
+      <c r="W39" s="14">
+        <v>1.3664199999999999E-3</v>
+      </c>
+      <c r="X39" s="14">
+        <v>1.3664199999999999E-3</v>
+      </c>
+      <c r="Y39" s="14">
+        <v>4.9659400000000005E-4</v>
+      </c>
+      <c r="Z39" s="14">
         <v>4.5771000000000001E-4</v>
       </c>
-      <c r="R39" s="15">
-        <v>1.4175500000000001E-3</v>
-      </c>
-      <c r="T39" s="13"/>
-      <c r="U39" s="14"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA39" s="14">
+        <v>2.1671700000000001E-4</v>
+      </c>
+      <c r="AB39" s="14">
+        <v>1.5023E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>2500</v>
       </c>
@@ -5907,27 +7482,52 @@
         <v>2500</v>
       </c>
       <c r="M40" s="11">
-        <v>2.07814E-3</v>
+        <v>5.0083899999999997E-3</v>
       </c>
       <c r="N40" s="14">
-        <v>4.1441999999999998E-3</v>
+        <v>5.4635300000000003E-3</v>
       </c>
       <c r="O40" s="14">
-        <v>1.2135200000000001E-2</v>
+        <v>1.5798300000000001E-2</v>
       </c>
       <c r="P40" s="14">
         <v>1.42439E-2</v>
       </c>
       <c r="Q40" s="14">
-        <v>1.27216E-3</v>
+        <v>4.9659400000000005E-4</v>
       </c>
       <c r="R40" s="15">
-        <v>2.2722700000000001E-4</v>
-      </c>
-      <c r="T40" s="13"/>
-      <c r="U40" s="14"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1.4175500000000001E-3</v>
+      </c>
+      <c r="T40" s="15">
+        <v>1.65592E-2</v>
+      </c>
+      <c r="U40" s="15">
+        <v>7.6535099999999997E-3</v>
+      </c>
+      <c r="V40" s="15">
+        <v>1.8061100000000001E-3</v>
+      </c>
+      <c r="W40" s="15">
+        <v>1.2390999999999999E-3</v>
+      </c>
+      <c r="X40" s="15">
+        <v>1.15836E-3</v>
+      </c>
+      <c r="Y40" s="15">
+        <v>1.4175500000000001E-3</v>
+      </c>
+      <c r="Z40" s="15">
+        <v>6.8762399999999996E-4</v>
+      </c>
+      <c r="AA40" s="15">
+        <v>1.3400400000000001E-4</v>
+      </c>
+      <c r="AB40" s="15">
+        <v>1.2722699999999999E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>5000</v>
       </c>
@@ -5953,27 +7553,27 @@
         <v>5000</v>
       </c>
       <c r="M41" s="11">
-        <v>2.7828200000000001E-3</v>
+        <v>4.1313499999999998E-3</v>
       </c>
       <c r="N41" s="14">
-        <v>2.7854300000000002E-3</v>
+        <v>4.1441999999999998E-3</v>
       </c>
       <c r="O41" s="14">
-        <v>9.6132300000000004E-3</v>
+        <v>1.2135200000000001E-2</v>
       </c>
       <c r="P41" s="14">
         <v>1.19411E-2</v>
       </c>
       <c r="Q41" s="14">
-        <v>2.1671700000000001E-4</v>
+        <v>4.5771000000000001E-4</v>
       </c>
       <c r="R41" s="15">
-        <v>5.8762400000000002E-4</v>
+        <v>6.8762399999999996E-4</v>
       </c>
       <c r="T41" s="13"/>
       <c r="U41" s="14"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>7500</v>
       </c>
@@ -5999,27 +7599,27 @@
         <v>7500</v>
       </c>
       <c r="M42" s="11">
-        <v>5.0083899999999997E-3</v>
+        <v>2.7828200000000001E-3</v>
       </c>
       <c r="N42" s="14">
-        <v>2.4920200000000002E-3</v>
+        <v>2.7854300000000002E-3</v>
       </c>
       <c r="O42" s="14">
-        <v>1.5798300000000001E-2</v>
+        <v>9.6132300000000004E-3</v>
       </c>
       <c r="P42" s="14">
         <v>9.0308100000000002E-3</v>
       </c>
       <c r="Q42" s="14">
-        <v>1.5023E-4</v>
+        <v>2.1671700000000001E-4</v>
       </c>
       <c r="R42" s="15">
-        <v>1.55836E-3</v>
+        <v>1.3400400000000001E-4</v>
       </c>
       <c r="T42" s="13"/>
       <c r="U42" s="14"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>10000</v>
       </c>
@@ -6045,10 +7645,10 @@
         <v>10000</v>
       </c>
       <c r="M43" s="11">
-        <v>5.2796900000000001E-3</v>
+        <v>2.07814E-3</v>
       </c>
       <c r="N43" s="14">
-        <v>1.1269400000000001E-2</v>
+        <v>2.4920200000000002E-3</v>
       </c>
       <c r="O43" s="14">
         <v>5.4552300000000001E-3</v>
@@ -6057,10 +7657,10 @@
         <v>6.9472700000000002E-3</v>
       </c>
       <c r="Q43" s="14">
-        <v>4.9659400000000005E-4</v>
+        <v>1.5023E-4</v>
       </c>
       <c r="R43" s="15">
-        <v>3.34004E-4</v>
+        <v>1.2722699999999999E-4</v>
       </c>
       <c r="T43" s="13"/>
       <c r="U43" s="2"/>
@@ -6068,7 +7668,7 @@
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
     </row>
-    <row r="45" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>25</v>
       </c>
@@ -6093,10 +7693,10 @@
       <c r="H45" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J45" s="17" t="s">
+      <c r="J45" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K45" s="17"/>
+      <c r="K45" s="20"/>
       <c r="L45" s="9" t="s">
         <v>4</v>
       </c>
@@ -6119,7 +7719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>100</v>
       </c>
@@ -6162,8 +7762,35 @@
       <c r="R46">
         <v>18.737500000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T46">
+        <v>16.655875000000002</v>
+      </c>
+      <c r="U46">
+        <v>23.329125000000001</v>
+      </c>
+      <c r="V46">
+        <v>31.852125000000001</v>
+      </c>
+      <c r="W46">
+        <v>32.585250000000002</v>
+      </c>
+      <c r="X46">
+        <v>34.871875000000003</v>
+      </c>
+      <c r="Y46">
+        <v>38.835500000000003</v>
+      </c>
+      <c r="Z46">
+        <v>39.644374999999997</v>
+      </c>
+      <c r="AA46">
+        <v>44.979624999999999</v>
+      </c>
+      <c r="AB46">
+        <v>51.370624999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>250</v>
       </c>
@@ -6206,8 +7833,35 @@
       <c r="R47">
         <v>26.008875</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T47">
+        <v>17.885750000000002</v>
+      </c>
+      <c r="U47">
+        <v>23.873374999999999</v>
+      </c>
+      <c r="V47">
+        <v>27.523875</v>
+      </c>
+      <c r="W47">
+        <v>34.350625000000001</v>
+      </c>
+      <c r="X47">
+        <v>34.621499999999997</v>
+      </c>
+      <c r="Y47">
+        <v>40.900874999999999</v>
+      </c>
+      <c r="Z47">
+        <v>41.335999999999999</v>
+      </c>
+      <c r="AA47">
+        <v>42.767000000000003</v>
+      </c>
+      <c r="AB47">
+        <v>50.235500000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>500</v>
       </c>
@@ -6233,7 +7887,7 @@
         <v>500</v>
       </c>
       <c r="M48">
-        <v>32.585250000000002</v>
+        <v>31.852125000000001</v>
       </c>
       <c r="N48">
         <v>27.523875</v>
@@ -6242,7 +7896,7 @@
         <v>25.724374999999998</v>
       </c>
       <c r="P48">
-        <v>32.052999999999997</v>
+        <v>31.956250000000001</v>
       </c>
       <c r="Q48">
         <v>27.965250000000001</v>
@@ -6250,8 +7904,35 @@
       <c r="R48">
         <v>28.635874999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T48">
+        <v>15.430875</v>
+      </c>
+      <c r="U48">
+        <v>24.656624999999998</v>
+      </c>
+      <c r="V48">
+        <v>25.724374999999998</v>
+      </c>
+      <c r="W48">
+        <v>34.512999999999998</v>
+      </c>
+      <c r="X48">
+        <v>35.525374999999997</v>
+      </c>
+      <c r="Y48">
+        <v>41.306125000000002</v>
+      </c>
+      <c r="Z48">
+        <v>42.89575</v>
+      </c>
+      <c r="AA48">
+        <v>46.753250000000001</v>
+      </c>
+      <c r="AB48">
+        <v>51.03725</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>750</v>
       </c>
@@ -6277,25 +7958,52 @@
         <v>750</v>
       </c>
       <c r="M49">
-        <v>38.835500000000003</v>
+        <v>32.585250000000002</v>
       </c>
       <c r="N49">
-        <v>34.621499999999997</v>
+        <v>34.350625000000001</v>
       </c>
       <c r="O49">
-        <v>35.525374999999997</v>
+        <v>34.512999999999998</v>
       </c>
       <c r="P49">
+        <v>32.052999999999997</v>
+      </c>
+      <c r="Q49">
+        <v>30.681000000000001</v>
+      </c>
+      <c r="R49">
+        <v>33.360875</v>
+      </c>
+      <c r="T49">
+        <v>16.840875</v>
+      </c>
+      <c r="U49">
+        <v>22.468875000000001</v>
+      </c>
+      <c r="V49">
         <v>31.956250000000001</v>
       </c>
-      <c r="Q49">
-        <v>32.808999999999997</v>
-      </c>
-      <c r="R49">
-        <v>38.785625000000003</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W49">
+        <v>32.052999999999997</v>
+      </c>
+      <c r="X49">
+        <v>35.894874999999999</v>
+      </c>
+      <c r="Y49">
+        <v>45.350625000000001</v>
+      </c>
+      <c r="Z49">
+        <v>46.142499999999998</v>
+      </c>
+      <c r="AA49">
+        <v>47.573749999999997</v>
+      </c>
+      <c r="AB49">
+        <v>51.056375000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>1000</v>
       </c>
@@ -6321,25 +8029,52 @@
         <v>1000</v>
       </c>
       <c r="M50">
-        <v>31.852125000000001</v>
+        <v>34.871875000000003</v>
       </c>
       <c r="N50">
-        <v>34.350625000000001</v>
+        <v>34.621499999999997</v>
       </c>
       <c r="O50">
-        <v>34.512999999999998</v>
+        <v>35.525374999999997</v>
       </c>
       <c r="P50">
         <v>35.894874999999999</v>
       </c>
       <c r="Q50">
+        <v>32.808999999999997</v>
+      </c>
+      <c r="R50">
+        <v>36.056624999999997</v>
+      </c>
+      <c r="T50">
+        <v>21.321249999999999</v>
+      </c>
+      <c r="U50">
+        <v>27.445125000000001</v>
+      </c>
+      <c r="V50">
+        <v>27.965250000000001</v>
+      </c>
+      <c r="W50">
         <v>30.681000000000001</v>
       </c>
-      <c r="R50">
-        <v>33.360875</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="X50">
+        <v>32.808999999999997</v>
+      </c>
+      <c r="Y50">
+        <v>42.180750000000003</v>
+      </c>
+      <c r="Z50">
+        <v>47.000374999999998</v>
+      </c>
+      <c r="AA50">
+        <v>49.720125000000003</v>
+      </c>
+      <c r="AB50">
+        <v>51.797499999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>2500</v>
       </c>
@@ -6365,10 +8100,10 @@
         <v>2500</v>
       </c>
       <c r="M51">
-        <v>34.871875000000003</v>
+        <v>38.835500000000003</v>
       </c>
       <c r="N51">
-        <v>41.335999999999999</v>
+        <v>40.900874999999999</v>
       </c>
       <c r="O51">
         <v>41.306125000000002</v>
@@ -6377,13 +8112,40 @@
         <v>45.350625000000001</v>
       </c>
       <c r="Q51">
-        <v>49.720125000000003</v>
+        <v>42.180750000000003</v>
       </c>
       <c r="R51">
+        <v>42.785625000000003</v>
+      </c>
+      <c r="T51">
+        <v>18.737500000000001</v>
+      </c>
+      <c r="U51">
+        <v>26.008875</v>
+      </c>
+      <c r="V51">
+        <v>28.635874999999999</v>
+      </c>
+      <c r="W51">
+        <v>33.360875</v>
+      </c>
+      <c r="X51">
         <v>36.056624999999997</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Y51">
+        <v>42.785625000000003</v>
+      </c>
+      <c r="Z51">
+        <v>47.935000000000002</v>
+      </c>
+      <c r="AA51">
+        <v>50.503500000000003</v>
+      </c>
+      <c r="AB51">
+        <v>53.66675</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>5000</v>
       </c>
@@ -6412,22 +8174,22 @@
         <v>39.644374999999997</v>
       </c>
       <c r="N52">
-        <v>42.767000000000003</v>
+        <v>41.335999999999999</v>
       </c>
       <c r="O52">
-        <v>46.753250000000001</v>
+        <v>42.89575</v>
       </c>
       <c r="P52">
-        <v>50.056375000000003</v>
+        <v>46.142499999999998</v>
       </c>
       <c r="Q52">
-        <v>42.180750000000003</v>
+        <v>47.000374999999998</v>
       </c>
       <c r="R52">
-        <v>41.935000000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+        <v>47.935000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>7500</v>
       </c>
@@ -6456,22 +8218,22 @@
         <v>44.979624999999999</v>
       </c>
       <c r="N53">
-        <v>40.900874999999999</v>
+        <v>42.767000000000003</v>
       </c>
       <c r="O53">
-        <v>59.03725</v>
+        <v>46.753250000000001</v>
       </c>
       <c r="P53">
         <v>47.573749999999997</v>
       </c>
       <c r="Q53">
-        <v>47.000374999999998</v>
+        <v>49.720125000000003</v>
       </c>
       <c r="R53">
-        <v>53.66675</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+        <v>50.503500000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>10000</v>
       </c>
@@ -6500,22 +8262,22 @@
         <v>51.370624999999997</v>
       </c>
       <c r="N54">
-        <v>69.235500000000002</v>
+        <v>50.235500000000002</v>
       </c>
       <c r="O54">
-        <v>42.89575</v>
+        <v>51.03725</v>
       </c>
       <c r="P54">
-        <v>46.142499999999998</v>
+        <v>51.056375000000003</v>
       </c>
       <c r="Q54">
         <v>51.797499999999999</v>
       </c>
       <c r="R54">
-        <v>45.503500000000003</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>53.66675</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>26</v>
       </c>
@@ -6540,10 +8302,10 @@
       <c r="H56" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J56" s="17" t="s">
+      <c r="J56" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K56" s="17"/>
+      <c r="K56" s="20"/>
       <c r="L56" s="9" t="s">
         <v>4</v>
       </c>
@@ -6566,7 +8328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>100</v>
       </c>
@@ -6609,8 +8371,35 @@
       <c r="R57">
         <v>211.77500000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T57">
+        <v>3.0216099999999999E-2</v>
+      </c>
+      <c r="U57">
+        <v>2.65309E-2</v>
+      </c>
+      <c r="V57">
+        <v>2.53887E-2</v>
+      </c>
+      <c r="W57">
+        <v>2.53485E-2</v>
+      </c>
+      <c r="X57">
+        <v>2.0905099999999999E-2</v>
+      </c>
+      <c r="Y57">
+        <v>1.9540499999999999E-2</v>
+      </c>
+      <c r="Z57">
+        <v>1.8477899999999998E-2</v>
+      </c>
+      <c r="AA57">
+        <v>1.7278999999999999E-2</v>
+      </c>
+      <c r="AB57">
+        <v>1.6954500000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>250</v>
       </c>
@@ -6653,8 +8442,35 @@
       <c r="R58">
         <v>228.3125</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T58">
+        <v>2.88811E-2</v>
+      </c>
+      <c r="U58">
+        <v>2.8130700000000002E-2</v>
+      </c>
+      <c r="V58">
+        <v>2.4592200000000002E-2</v>
+      </c>
+      <c r="W58">
+        <v>2.2113000000000001E-2</v>
+      </c>
+      <c r="X58">
+        <v>2.0985799999999999E-2</v>
+      </c>
+      <c r="Y58">
+        <v>1.9898300000000001E-2</v>
+      </c>
+      <c r="Z58">
+        <v>1.8597300000000001E-2</v>
+      </c>
+      <c r="AA58">
+        <v>1.7619900000000001E-2</v>
+      </c>
+      <c r="AB58">
+        <v>1.6525499999999999E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>500</v>
       </c>
@@ -6697,8 +8513,35 @@
       <c r="R59">
         <v>215.48625000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T59">
+        <v>1.04531E-2</v>
+      </c>
+      <c r="U59">
+        <v>1.0779800000000001E-2</v>
+      </c>
+      <c r="V59">
+        <v>1.0969100000000001E-2</v>
+      </c>
+      <c r="W59">
+        <v>1.10501E-2</v>
+      </c>
+      <c r="X59">
+        <v>1.15563E-2</v>
+      </c>
+      <c r="Y59">
+        <v>1.2027400000000001E-2</v>
+      </c>
+      <c r="Z59">
+        <v>1.2371500000000001E-2</v>
+      </c>
+      <c r="AA59">
+        <v>1.27969E-2</v>
+      </c>
+      <c r="AB59">
+        <v>1.3096500000000001E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>750</v>
       </c>
@@ -6741,8 +8584,35 @@
       <c r="R60">
         <v>238.66</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T60">
+        <v>1.2984900000000001E-2</v>
+      </c>
+      <c r="U60">
+        <v>1.24517E-2</v>
+      </c>
+      <c r="V60">
+        <v>1.21917E-2</v>
+      </c>
+      <c r="W60">
+        <v>1.19442E-2</v>
+      </c>
+      <c r="X60">
+        <v>1.1672099999999999E-2</v>
+      </c>
+      <c r="Y60">
+        <v>1.12768E-2</v>
+      </c>
+      <c r="Z60">
+        <v>1.10876E-2</v>
+      </c>
+      <c r="AA60">
+        <v>1.1061E-2</v>
+      </c>
+      <c r="AB60">
+        <v>1.09508E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>1000</v>
       </c>
@@ -6785,8 +8655,35 @@
       <c r="R61">
         <v>215.38249999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T61">
+        <v>3.3835799999999999E-2</v>
+      </c>
+      <c r="U61">
+        <v>2.8931399999999999E-2</v>
+      </c>
+      <c r="V61">
+        <v>2.2573800000000002E-2</v>
+      </c>
+      <c r="W61">
+        <v>2.1475500000000002E-2</v>
+      </c>
+      <c r="X61">
+        <v>2.0611299999999999E-2</v>
+      </c>
+      <c r="Y61">
+        <v>2.0324100000000001E-2</v>
+      </c>
+      <c r="Z61">
+        <v>1.8617999999999999E-2</v>
+      </c>
+      <c r="AA61">
+        <v>1.7942400000000001E-2</v>
+      </c>
+      <c r="AB61">
+        <v>1.7421499999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>2500</v>
       </c>
@@ -6829,8 +8726,35 @@
       <c r="R62">
         <v>210.08250000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T62">
+        <v>3.3822699999999997E-2</v>
+      </c>
+      <c r="U62">
+        <v>2.6980500000000001E-2</v>
+      </c>
+      <c r="V62">
+        <v>2.4715399999999998E-2</v>
+      </c>
+      <c r="W62">
+        <v>2.232E-2</v>
+      </c>
+      <c r="X62">
+        <v>2.1890400000000001E-2</v>
+      </c>
+      <c r="Y62">
+        <v>1.95059E-2</v>
+      </c>
+      <c r="Z62">
+        <v>1.8272900000000002E-2</v>
+      </c>
+      <c r="AA62">
+        <v>1.7071599999999999E-2</v>
+      </c>
+      <c r="AB62">
+        <v>1.64511E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>5000</v>
       </c>
@@ -6874,7 +8798,7 @@
         <v>221.8175</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>7500</v>
       </c>
@@ -6987,10 +8911,10 @@
       <c r="H67" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J67" s="17" t="s">
+      <c r="J67" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="K67" s="17"/>
+      <c r="K67" s="20"/>
       <c r="L67" s="9" t="s">
         <v>4</v>
       </c>
@@ -7045,7 +8969,7 @@
         <v>2.88811E-2</v>
       </c>
       <c r="O68">
-        <v>1.2371500000000001E-2</v>
+        <v>1.04531E-2</v>
       </c>
       <c r="P68">
         <v>1.2984900000000001E-2</v>
@@ -7113,13 +9037,13 @@
         <v>2.65309E-2</v>
       </c>
       <c r="N69">
-        <v>2.4592200000000002E-2</v>
+        <v>2.8130700000000002E-2</v>
       </c>
       <c r="O69">
-        <v>1.27969E-2</v>
+        <v>1.0779800000000001E-2</v>
       </c>
       <c r="P69">
-        <v>1.21917E-2</v>
+        <v>1.24517E-2</v>
       </c>
       <c r="Q69">
         <v>2.8931399999999999E-2</v>
@@ -7184,19 +9108,19 @@
         <v>2.53887E-2</v>
       </c>
       <c r="N70">
-        <v>2.0985799999999999E-2</v>
+        <v>2.4592200000000002E-2</v>
       </c>
       <c r="O70">
-        <v>1.10501E-2</v>
+        <v>1.0969100000000001E-2</v>
       </c>
       <c r="P70">
-        <v>1.24517E-2</v>
+        <v>1.21917E-2</v>
       </c>
       <c r="Q70">
-        <v>2.1475500000000002E-2</v>
+        <v>2.2573800000000002E-2</v>
       </c>
       <c r="R70">
-        <v>2.1890400000000001E-2</v>
+        <v>2.4715399999999998E-2</v>
       </c>
       <c r="U70">
         <v>209.98</v>
@@ -7258,16 +9182,16 @@
         <v>2.2113000000000001E-2</v>
       </c>
       <c r="O71">
-        <v>1.2027400000000001E-2</v>
+        <v>1.10501E-2</v>
       </c>
       <c r="P71">
-        <v>1.10876E-2</v>
+        <v>1.19442E-2</v>
       </c>
       <c r="Q71">
-        <v>2.0611299999999999E-2</v>
+        <v>2.1475500000000002E-2</v>
       </c>
       <c r="R71">
-        <v>2.4715399999999998E-2</v>
+        <v>2.232E-2</v>
       </c>
       <c r="U71">
         <v>213.45750000000001</v>
@@ -7323,22 +9247,22 @@
         <v>1000</v>
       </c>
       <c r="M72">
-        <v>1.9540499999999999E-2</v>
+        <v>2.0905099999999999E-2</v>
       </c>
       <c r="N72">
-        <v>1.9898300000000001E-2</v>
+        <v>2.0985799999999999E-2</v>
       </c>
       <c r="O72">
         <v>1.15563E-2</v>
       </c>
       <c r="P72">
-        <v>1.12768E-2</v>
+        <v>1.1672099999999999E-2</v>
       </c>
       <c r="Q72">
-        <v>1.7942400000000001E-2</v>
+        <v>2.0611299999999999E-2</v>
       </c>
       <c r="R72">
-        <v>1.95059E-2</v>
+        <v>2.1890400000000001E-2</v>
       </c>
       <c r="U72">
         <v>222.15</v>
@@ -7394,22 +9318,22 @@
         <v>2500</v>
       </c>
       <c r="M73">
-        <v>1.6954500000000001E-2</v>
+        <v>1.9540499999999999E-2</v>
       </c>
       <c r="N73">
-        <v>1.8597300000000001E-2</v>
+        <v>1.9898300000000001E-2</v>
       </c>
       <c r="O73">
-        <v>1.0969100000000001E-2</v>
+        <v>1.2027400000000001E-2</v>
       </c>
       <c r="P73">
-        <v>1.1672099999999999E-2</v>
+        <v>1.12768E-2</v>
       </c>
       <c r="Q73">
-        <v>2.2573800000000002E-2</v>
+        <v>2.0324100000000001E-2</v>
       </c>
       <c r="R73">
-        <v>1.64511E-2</v>
+        <v>1.95059E-2</v>
       </c>
       <c r="U73">
         <v>206.44125</v>
@@ -7465,22 +9389,22 @@
         <v>5000</v>
       </c>
       <c r="M74">
-        <v>1.7278999999999999E-2</v>
+        <v>1.8477899999999998E-2</v>
       </c>
       <c r="N74">
-        <v>1.7619900000000001E-2</v>
+        <v>1.8597300000000001E-2</v>
       </c>
       <c r="O74">
-        <v>1.0779800000000001E-2</v>
+        <v>1.2371500000000001E-2</v>
       </c>
       <c r="P74">
-        <v>1.19442E-2</v>
+        <v>1.10876E-2</v>
       </c>
       <c r="Q74">
-        <v>1.7421499999999999E-2</v>
+        <v>1.8617999999999999E-2</v>
       </c>
       <c r="R74">
-        <v>1.7071599999999999E-2</v>
+        <v>1.8272900000000002E-2</v>
       </c>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.25">
@@ -7509,22 +9433,22 @@
         <v>7500</v>
       </c>
       <c r="M75">
-        <v>1.8477899999999998E-2</v>
+        <v>1.7278999999999999E-2</v>
       </c>
       <c r="N75">
-        <v>1.6525499999999999E-2</v>
+        <v>1.7619900000000001E-2</v>
       </c>
       <c r="O75">
-        <v>1.3096500000000001E-2</v>
+        <v>1.27969E-2</v>
       </c>
       <c r="P75">
         <v>1.1061E-2</v>
       </c>
       <c r="Q75">
-        <v>1.8617999999999999E-2</v>
+        <v>1.7942400000000001E-2</v>
       </c>
       <c r="R75">
-        <v>2.232E-2</v>
+        <v>1.7071599999999999E-2</v>
       </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.25">
@@ -7553,22 +9477,22 @@
         <v>10000</v>
       </c>
       <c r="M76">
-        <v>2.0905099999999999E-2</v>
+        <v>1.6954500000000001E-2</v>
       </c>
       <c r="N76">
-        <v>2.8130700000000002E-2</v>
+        <v>1.6525499999999999E-2</v>
       </c>
       <c r="O76">
-        <v>1.04531E-2</v>
+        <v>1.3096500000000001E-2</v>
       </c>
       <c r="P76">
         <v>1.09508E-2</v>
       </c>
       <c r="Q76">
-        <v>2.0324100000000001E-2</v>
+        <v>1.7421499999999999E-2</v>
       </c>
       <c r="R76">
-        <v>1.8272900000000002E-2</v>
+        <v>1.64511E-2</v>
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.25">
@@ -7630,7 +9554,7 @@
         <v>0.280613</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C81" s="2">
         <v>0.20170299999999999</v>
       </c>
@@ -7647,7 +9571,7 @@
         <v>0.44137399999999999</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>2222.0374999999999</v>
       </c>
@@ -7664,17 +9588,17 @@
         <v>0.88080099999999995</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B84">
         <f>B83/1024</f>
         <v>2.1699584960937499</v>
       </c>
       <c r="C84">
-        <f t="shared" ref="C84:D84" si="3">C83/1024</f>
+        <f t="shared" ref="C84:D84" si="0">C83/1024</f>
         <v>1.6982666015625001</v>
       </c>
       <c r="D84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1.4534515380859376</v>
       </c>
       <c r="G84" s="2">
@@ -7683,8 +9607,35 @@
       <c r="H84">
         <v>0.72864499999999999</v>
       </c>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <v>0.49207699999999999</v>
+      </c>
+      <c r="L84">
+        <v>0.39598899999999998</v>
+      </c>
+      <c r="M84">
+        <v>0.328735</v>
+      </c>
+      <c r="N84">
+        <v>0.292939</v>
+      </c>
+      <c r="O84">
+        <v>0.26492700000000002</v>
+      </c>
+      <c r="P84">
+        <v>0.20963599999999999</v>
+      </c>
+      <c r="Q84">
+        <v>0.184252</v>
+      </c>
+      <c r="R84">
+        <v>0.17974200000000001</v>
+      </c>
+      <c r="S84">
+        <v>0.17463100000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G85" s="2">
         <f>G83-G84</f>
         <v>5.5983000000000005E-2</v>
@@ -7693,8 +9644,35 @@
         <f>H83-H84</f>
         <v>0.15215599999999996</v>
       </c>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <v>0.44524799999999998</v>
+      </c>
+      <c r="L85">
+        <v>0.35793199999999997</v>
+      </c>
+      <c r="M85">
+        <v>0.29089900000000002</v>
+      </c>
+      <c r="N85">
+        <v>0.25548599999999999</v>
+      </c>
+      <c r="O85">
+        <v>0.233487</v>
+      </c>
+      <c r="P85">
+        <v>0.194406</v>
+      </c>
+      <c r="Q85">
+        <v>0.17444899999999999</v>
+      </c>
+      <c r="R85">
+        <v>0.16872500000000001</v>
+      </c>
+      <c r="S85">
+        <v>0.162191</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>3089.3125</v>
       </c>
@@ -7704,22 +9682,279 @@
       <c r="D86">
         <v>3108.84375</v>
       </c>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <v>0.43319800000000003</v>
+      </c>
+      <c r="L86">
+        <v>0.338758</v>
+      </c>
+      <c r="M86">
+        <v>0.26894899999999999</v>
+      </c>
+      <c r="N86">
+        <v>0.23804800000000001</v>
+      </c>
+      <c r="O86">
+        <v>0.21341499999999999</v>
+      </c>
+      <c r="P86">
+        <v>0.17544999999999999</v>
+      </c>
+      <c r="Q86">
+        <v>0.15686600000000001</v>
+      </c>
+      <c r="R86">
+        <v>0.152361</v>
+      </c>
+      <c r="S86">
+        <v>0.15024499999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B87">
         <f>B86/1024</f>
         <v>3.01690673828125</v>
       </c>
       <c r="C87">
-        <f t="shared" ref="C87:D87" si="4">C86/1024</f>
+        <f t="shared" ref="C87:D87" si="1">C86/1024</f>
         <v>3.1017700195312501</v>
       </c>
       <c r="D87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3.035980224609375</v>
       </c>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <v>0.42779899999999998</v>
+      </c>
+      <c r="L87">
+        <v>0.33485199999999998</v>
+      </c>
+      <c r="M87">
+        <v>0.270957</v>
+      </c>
+      <c r="N87">
+        <v>0.23924999999999999</v>
+      </c>
+      <c r="O87">
+        <v>0.21757000000000001</v>
+      </c>
+      <c r="P87">
+        <v>0.173483</v>
+      </c>
+      <c r="Q87">
+        <v>0.158692</v>
+      </c>
+      <c r="R87">
+        <v>0.15041499999999999</v>
+      </c>
+      <c r="S87">
+        <v>0.14840999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <v>0.67885799999999996</v>
+      </c>
+      <c r="L88">
+        <v>0.55195099999999997</v>
+      </c>
+      <c r="M88">
+        <v>0.44724700000000001</v>
+      </c>
+      <c r="N88">
+        <v>0.38184299999999999</v>
+      </c>
+      <c r="O88">
+        <v>0.34440599999999999</v>
+      </c>
+      <c r="P88">
+        <v>0.25596000000000002</v>
+      </c>
+      <c r="Q88">
+        <v>0.22017700000000001</v>
+      </c>
+      <c r="R88">
+        <v>0.206149</v>
+      </c>
+      <c r="S88">
+        <v>0.20033699999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <v>0.602128</v>
+      </c>
+      <c r="L89">
+        <v>0.49448199999999998</v>
+      </c>
+      <c r="M89">
+        <v>0.40062399999999998</v>
+      </c>
+      <c r="N89">
+        <v>0.345688</v>
+      </c>
+      <c r="O89">
+        <v>0.31342900000000001</v>
+      </c>
+      <c r="P89">
+        <v>0.239956</v>
+      </c>
+      <c r="Q89">
+        <v>0.20905299999999999</v>
+      </c>
+      <c r="R89">
+        <v>0.194522</v>
+      </c>
+      <c r="S89">
+        <v>0.19017200000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K91">
+        <v>0.85194702148437496</v>
+      </c>
+      <c r="L91">
+        <v>1.026002197265625</v>
+      </c>
+      <c r="M91">
+        <v>1.21218994140625</v>
+      </c>
+      <c r="N91">
+        <v>1.307373046875</v>
+      </c>
+      <c r="O91">
+        <v>1.3702880859375</v>
+      </c>
+      <c r="P91">
+        <v>1.5240844726562499</v>
+      </c>
+      <c r="Q91">
+        <v>1.57117919921875</v>
+      </c>
+      <c r="R91">
+        <v>1.61229248046875</v>
+      </c>
+      <c r="S91">
+        <v>1.637744140625</v>
+      </c>
+    </row>
+    <row r="92" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K92">
+        <v>0.85060424804687496</v>
+      </c>
+      <c r="L92">
+        <v>1.0508496093749999</v>
+      </c>
+      <c r="M92">
+        <v>1.238232421875</v>
+      </c>
+      <c r="N92">
+        <v>1.3035400390625</v>
+      </c>
+      <c r="O92">
+        <v>1.371630859375</v>
+      </c>
+      <c r="P92">
+        <v>1.5413452148437501</v>
+      </c>
+      <c r="Q92">
+        <v>1.5965576171875</v>
+      </c>
+      <c r="R92">
+        <v>1.60975341796875</v>
+      </c>
+      <c r="S92">
+        <v>1.6319824218750001</v>
+      </c>
+    </row>
+    <row r="93" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K93">
+        <v>0.82729248046875004</v>
+      </c>
+      <c r="L93">
+        <v>1.0205151367187499</v>
+      </c>
+      <c r="M93">
+        <v>1.1964135742187501</v>
+      </c>
+      <c r="N93">
+        <v>1.3094848632812499</v>
+      </c>
+      <c r="O93">
+        <v>1.3624633789062499</v>
+      </c>
+      <c r="P93">
+        <v>1.5408447265625</v>
+      </c>
+      <c r="Q93">
+        <v>1.6149169921875</v>
+      </c>
+      <c r="R93">
+        <v>1.63465576171875</v>
+      </c>
+      <c r="S93">
+        <v>1.6550659179687499</v>
+      </c>
+    </row>
+    <row r="94" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <v>0.82897827148437497</v>
+      </c>
+      <c r="L94">
+        <v>1.0368420410156249</v>
+      </c>
+      <c r="M94">
+        <v>1.2118676757812501</v>
+      </c>
+      <c r="N94">
+        <v>1.30919189453125</v>
+      </c>
+      <c r="O94">
+        <v>1.38062744140625</v>
+      </c>
+      <c r="P94">
+        <v>1.53338623046875</v>
+      </c>
+      <c r="Q94">
+        <v>1.6159301757812501</v>
+      </c>
+      <c r="R94">
+        <v>1.6255859374999999</v>
+      </c>
+      <c r="S94">
+        <v>1.64837646484375</v>
+      </c>
+    </row>
+    <row r="95" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K95">
+        <v>1.29053955078125</v>
+      </c>
+      <c r="L95">
+        <v>1.46873779296875</v>
+      </c>
+      <c r="M95">
+        <v>1.60325927734375</v>
+      </c>
+      <c r="N95">
+        <v>1.70286865234375</v>
+      </c>
+      <c r="O95">
+        <v>1.75115966796875</v>
+      </c>
+      <c r="P95">
+        <v>1.85565185546875</v>
+      </c>
+      <c r="Q95">
+        <v>1.9199462890625001</v>
+      </c>
+      <c r="R95">
+        <v>1.95762939453125</v>
+      </c>
+      <c r="S95">
+        <v>1.94627685546875</v>
+      </c>
+    </row>
+    <row r="96" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D96">
         <v>23958.7</v>
       </c>
@@ -7727,13 +9962,40 @@
         <f>D96/8</f>
         <v>2994.8375000000001</v>
       </c>
+      <c r="K96">
+        <v>1.4976562499999999</v>
+      </c>
+      <c r="L96">
+        <v>1.63018798828125</v>
+      </c>
+      <c r="M96">
+        <v>1.8028808593750001</v>
+      </c>
+      <c r="N96">
+        <v>1.84959716796875</v>
+      </c>
+      <c r="O96">
+        <v>1.92164306640625</v>
+      </c>
+      <c r="P96">
+        <v>2.0525756835937501</v>
+      </c>
+      <c r="Q96">
+        <v>2.1288330078125002</v>
+      </c>
+      <c r="R96">
+        <v>2.1233032226562498</v>
+      </c>
+      <c r="S96">
+        <v>2.1568603515625</v>
+      </c>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D97">
         <v>23978.5</v>
       </c>
       <c r="E97">
-        <f t="shared" ref="E97:E104" si="5">D97/8</f>
+        <f t="shared" ref="E97:E104" si="2">D97/8</f>
         <v>2997.3125</v>
       </c>
     </row>
@@ -7742,7 +10004,7 @@
         <v>24143.200000000001</v>
       </c>
       <c r="E98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>3017.9</v>
       </c>
     </row>
@@ -7751,7 +10013,7 @@
         <v>24209.3</v>
       </c>
       <c r="E99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>3026.1624999999999</v>
       </c>
     </row>
@@ -7760,7 +10022,7 @@
         <v>24266.6</v>
       </c>
       <c r="E100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>3033.3249999999998</v>
       </c>
     </row>
@@ -7769,7 +10031,7 @@
         <v>24308.7</v>
       </c>
       <c r="E101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>3038.5875000000001</v>
       </c>
     </row>
@@ -7778,7 +10040,7 @@
         <v>24402.1</v>
       </c>
       <c r="E102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>3050.2624999999998</v>
       </c>
     </row>
@@ -7787,7 +10049,7 @@
         <v>24456.6</v>
       </c>
       <c r="E103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>3057.0749999999998</v>
       </c>
     </row>
@@ -7796,13 +10058,13 @@
         <v>24740.6</v>
       </c>
       <c r="E104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>3092.5749999999998</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="M57:M65">
-    <sortCondition ref="M57:M65"/>
+  <sortState ref="M68:M76">
+    <sortCondition descending="1" ref="M68"/>
   </sortState>
   <mergeCells count="7">
     <mergeCell ref="J67:K67"/>
@@ -7822,8 +10084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E643D7BC-AB9C-4C7D-A150-6AD866B71A01}">
   <dimension ref="A1:Z90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S40" sqref="S40:Y45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7844,9 +10106,10 @@
     <col min="16" max="16" width="12.85546875" customWidth="1"/>
     <col min="17" max="17" width="15.42578125" customWidth="1"/>
     <col min="18" max="18" width="11.7109375" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7860,7 +10123,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -7873,8 +10136,29 @@
       <c r="G2">
         <v>3000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J2" s="11">
+        <v>0.83981799999999995</v>
+      </c>
+      <c r="K2" s="11">
+        <v>0.85439600000000004</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0.87040200000000001</v>
+      </c>
+      <c r="M2" s="11">
+        <v>0.87577400000000005</v>
+      </c>
+      <c r="N2" s="11">
+        <v>0.895428</v>
+      </c>
+      <c r="O2" s="11">
+        <v>0.90396900000000002</v>
+      </c>
+      <c r="P2" s="11">
+        <v>0.906609</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -7887,37 +10171,163 @@
       <c r="G3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J3" s="11">
+        <v>0.83508599999999999</v>
+      </c>
+      <c r="K3" s="11">
+        <v>0.85883399999999999</v>
+      </c>
+      <c r="L3" s="14">
+        <v>0.86796300000000004</v>
+      </c>
+      <c r="M3" s="14">
+        <v>0.87818499999999999</v>
+      </c>
+      <c r="N3" s="14">
+        <v>0.89245399999999997</v>
+      </c>
+      <c r="O3" s="14">
+        <v>0.90296500000000002</v>
+      </c>
+      <c r="P3" s="14">
+        <v>0.906219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>439</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J4" s="14">
+        <v>0.83296400000000004</v>
+      </c>
+      <c r="K4" s="14">
+        <v>0.85894999999999999</v>
+      </c>
+      <c r="L4" s="14">
+        <v>0.86912900000000004</v>
+      </c>
+      <c r="M4" s="14">
+        <v>0.881857</v>
+      </c>
+      <c r="N4" s="14">
+        <v>0.8962</v>
+      </c>
+      <c r="O4">
+        <v>0.904277</v>
+      </c>
+      <c r="P4" s="14">
+        <v>0.90571999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>0.68500000000000005</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J5" s="14">
+        <v>0.839916</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0.85865899999999995</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0.86806700000000003</v>
+      </c>
+      <c r="M5" s="14">
+        <v>0.87690100000000004</v>
+      </c>
+      <c r="N5" s="14">
+        <v>0.89373199999999997</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0.90506500000000001</v>
+      </c>
+      <c r="P5" s="14">
+        <v>0.91024300000000002</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1">
+        <v>2</v>
+      </c>
+      <c r="X5" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J6" s="14">
+        <v>0.79059900000000005</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0.81971700000000003</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0.83774800000000005</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.85056799999999999</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0.87707199999999996</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0.893953</v>
+      </c>
+      <c r="P6" s="14">
+        <v>0.89806399999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J7" s="14">
+        <v>0.70840400000000003</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0.73070400000000002</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0.74608699999999994</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0.76483000000000001</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0.77928200000000003</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0.79999399999999998</v>
+      </c>
+      <c r="P7" s="14">
+        <v>0.806064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -7925,25 +10335,28 @@
         <v>1</v>
       </c>
       <c r="S8" s="13">
-        <v>13894200</v>
-      </c>
-      <c r="T8" s="14">
-        <v>0.70840400000000003</v>
-      </c>
-      <c r="U8">
-        <v>159.21799999999999</v>
-      </c>
-      <c r="V8">
-        <v>24408</v>
-      </c>
-      <c r="W8">
-        <v>16372.2</v>
-      </c>
-      <c r="X8">
-        <v>0.25930199999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+        <v>4166500</v>
+      </c>
+      <c r="T8" s="13">
+        <v>4163380</v>
+      </c>
+      <c r="U8" s="13">
+        <v>4139730</v>
+      </c>
+      <c r="V8" s="13">
+        <v>4073280</v>
+      </c>
+      <c r="W8" s="13">
+        <v>4038360</v>
+      </c>
+      <c r="X8" s="13">
+        <v>3713690</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>3480630</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -7951,67 +10364,76 @@
         <v>0.9</v>
       </c>
       <c r="S9" s="13">
-        <v>10822600</v>
-      </c>
-      <c r="T9" s="14">
-        <v>0.73070400000000002</v>
-      </c>
-      <c r="U9">
-        <v>134.33199999999999</v>
-      </c>
-      <c r="V9">
-        <v>24452.2</v>
-      </c>
-      <c r="W9">
-        <v>15222.4</v>
-      </c>
-      <c r="X9">
-        <v>0.34742899999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>4227600</v>
+      </c>
+      <c r="T9" s="13">
+        <v>4085370</v>
+      </c>
+      <c r="U9" s="6">
+        <v>3969820</v>
+      </c>
+      <c r="V9" s="13">
+        <v>3966720</v>
+      </c>
+      <c r="W9" s="13">
+        <v>3957400</v>
+      </c>
+      <c r="X9" s="13">
+        <v>3491010</v>
+      </c>
+      <c r="Y9" s="13">
+        <v>3471960</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="S10" s="13">
-        <v>8858280</v>
-      </c>
-      <c r="T10" s="14">
-        <v>0.74608699999999994</v>
-      </c>
-      <c r="U10">
-        <v>116.675</v>
-      </c>
-      <c r="V10">
-        <v>24407.3</v>
-      </c>
-      <c r="W10">
-        <v>14107.4</v>
-      </c>
-      <c r="X10">
-        <v>0.41232600000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
+        <v>3967310</v>
+      </c>
+      <c r="T10" s="13">
+        <v>3861220</v>
+      </c>
+      <c r="U10" s="13">
+        <v>3789630</v>
+      </c>
+      <c r="V10" s="13">
+        <v>3718120</v>
+      </c>
+      <c r="W10" s="13">
+        <v>3503980</v>
+      </c>
+      <c r="X10" s="13">
+        <v>3419870</v>
+      </c>
+      <c r="Y10" s="13">
+        <v>3233920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
       <c r="S11" s="13">
-        <v>7220670</v>
-      </c>
-      <c r="T11" s="14">
-        <v>0.76483000000000001</v>
-      </c>
-      <c r="U11">
-        <v>102.60599999999999</v>
-      </c>
-      <c r="V11">
-        <v>24853.3</v>
-      </c>
-      <c r="W11">
-        <v>13404.8</v>
-      </c>
-      <c r="X11">
-        <v>0.46391399999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+        <v>4079230</v>
+      </c>
+      <c r="T11" s="13">
+        <v>3926290</v>
+      </c>
+      <c r="U11" s="13">
+        <v>3825080</v>
+      </c>
+      <c r="V11" s="13">
+        <v>3637540</v>
+      </c>
+      <c r="W11" s="13">
+        <v>3527610</v>
+      </c>
+      <c r="X11" s="13">
+        <v>3379880</v>
+      </c>
+      <c r="Y11" s="13">
+        <v>3373120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -8024,7 +10446,7 @@
       <c r="D12" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="22"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="3" t="s">
         <v>32</v>
       </c>
@@ -8038,25 +10460,28 @@
         <v>31</v>
       </c>
       <c r="S12" s="13">
-        <v>4963810</v>
-      </c>
-      <c r="T12" s="14">
-        <v>0.77928200000000003</v>
-      </c>
-      <c r="U12">
-        <v>74.959400000000002</v>
-      </c>
-      <c r="V12">
-        <v>24289.599999999999</v>
-      </c>
-      <c r="W12">
-        <v>10776.3</v>
-      </c>
-      <c r="X12">
-        <v>0.57086999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+        <v>4212620</v>
+      </c>
+      <c r="T12" s="13">
+        <v>4137320</v>
+      </c>
+      <c r="U12" s="13">
+        <v>4106740</v>
+      </c>
+      <c r="V12" s="13">
+        <v>4011930</v>
+      </c>
+      <c r="W12" s="13">
+        <v>3732720</v>
+      </c>
+      <c r="X12" s="13">
+        <v>3664230</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>3401150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -8106,25 +10531,28 @@
         <v>21</v>
       </c>
       <c r="S13" s="13">
-        <v>3067640</v>
-      </c>
-      <c r="T13" s="14">
-        <v>0.79999399999999998</v>
-      </c>
-      <c r="U13">
-        <v>51.214399999999998</v>
-      </c>
-      <c r="V13">
-        <v>24452.5</v>
-      </c>
-      <c r="W13">
-        <v>8601.75</v>
-      </c>
-      <c r="X13">
-        <v>0.66574800000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+        <v>4229000</v>
+      </c>
+      <c r="T13" s="13">
+        <v>4141430</v>
+      </c>
+      <c r="U13" s="13">
+        <v>4134430</v>
+      </c>
+      <c r="V13" s="13">
+        <v>4051350</v>
+      </c>
+      <c r="W13" s="13">
+        <v>3897360</v>
+      </c>
+      <c r="X13" s="13">
+        <v>3765830</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>3744700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>0.25</v>
       </c>
@@ -8150,13 +10578,13 @@
         <v>0.25</v>
       </c>
       <c r="L14" s="13">
-        <v>4163380</v>
+        <v>4166500</v>
       </c>
       <c r="M14" s="13">
         <v>4227600</v>
       </c>
       <c r="N14" s="13">
-        <v>3789630</v>
+        <v>3967310</v>
       </c>
       <c r="O14" s="13">
         <v>4079230</v>
@@ -8186,7 +10614,7 @@
         <v>0.68141799999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>0.5</v>
       </c>
@@ -8212,13 +10640,13 @@
         <v>0.5</v>
       </c>
       <c r="L15" s="13">
-        <v>4166500</v>
-      </c>
-      <c r="M15" s="6">
-        <v>3969820</v>
+        <v>4163380</v>
+      </c>
+      <c r="M15" s="13">
+        <v>4085370</v>
       </c>
       <c r="N15" s="13">
-        <v>3967310</v>
+        <v>3861220</v>
       </c>
       <c r="O15" s="13">
         <v>3926290</v>
@@ -8232,7 +10660,7 @@
       <c r="S15" s="13"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>0.75</v>
       </c>
@@ -8260,17 +10688,17 @@
       <c r="L16" s="13">
         <v>4139730</v>
       </c>
-      <c r="M16" s="13">
-        <v>4085370</v>
+      <c r="M16" s="6">
+        <v>3969820</v>
       </c>
       <c r="N16" s="13">
-        <v>3861220</v>
+        <v>3789630</v>
       </c>
       <c r="O16" s="13">
         <v>3825080</v>
       </c>
       <c r="P16" s="13">
-        <v>3664230</v>
+        <v>4106740</v>
       </c>
       <c r="Q16" s="13">
         <v>4134430</v>
@@ -8304,7 +10732,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="13">
-        <v>4038360</v>
+        <v>4073280</v>
       </c>
       <c r="M17" s="13">
         <v>3966720</v>
@@ -8316,7 +10744,7 @@
         <v>3637540</v>
       </c>
       <c r="P17" s="13">
-        <v>4106740</v>
+        <v>4011930</v>
       </c>
       <c r="Q17" s="13">
         <v>4051350</v>
@@ -8325,11 +10753,11 @@
       <c r="T17" s="14"/>
       <c r="V17">
         <f>V8/8</f>
-        <v>3051</v>
+        <v>509160</v>
       </c>
       <c r="W17">
         <f>W8/8</f>
-        <v>2046.5250000000001</v>
+        <v>504795</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
@@ -8358,7 +10786,7 @@
         <v>2</v>
       </c>
       <c r="L18" s="13">
-        <v>4073280</v>
+        <v>4038360</v>
       </c>
       <c r="M18" s="13">
         <v>3957400</v>
@@ -8370,18 +10798,18 @@
         <v>3527610</v>
       </c>
       <c r="P18" s="13">
-        <v>4011930</v>
+        <v>3732720</v>
       </c>
       <c r="Q18" s="13">
         <v>3897360</v>
       </c>
       <c r="V18">
         <f t="shared" ref="V18:V23" si="0">V9/8</f>
-        <v>3056.5250000000001</v>
+        <v>495840</v>
       </c>
       <c r="W18">
         <f t="shared" ref="W18:W23" si="1">W9/8</f>
-        <v>1902.8</v>
+        <v>494675</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -8413,7 +10841,7 @@
         <v>3713690</v>
       </c>
       <c r="M19" s="13">
-        <v>3471960</v>
+        <v>3491010</v>
       </c>
       <c r="N19" s="13">
         <v>3419870</v>
@@ -8422,18 +10850,18 @@
         <v>3379880</v>
       </c>
       <c r="P19" s="13">
-        <v>3732720</v>
+        <v>3664230</v>
       </c>
       <c r="Q19" s="13">
-        <v>3744700</v>
+        <v>3765830</v>
       </c>
       <c r="V19">
         <f t="shared" si="0"/>
-        <v>3050.9124999999999</v>
+        <v>464765</v>
       </c>
       <c r="W19">
         <f t="shared" si="1"/>
-        <v>1763.425</v>
+        <v>437997.5</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -8465,7 +10893,7 @@
         <v>3480630</v>
       </c>
       <c r="M20" s="13">
-        <v>3891010</v>
+        <v>3471960</v>
       </c>
       <c r="N20" s="13">
         <v>3233920</v>
@@ -8477,15 +10905,15 @@
         <v>3401150</v>
       </c>
       <c r="Q20" s="13">
-        <v>3765830</v>
+        <v>3744700</v>
       </c>
       <c r="V20">
         <f t="shared" si="0"/>
-        <v>3106.6624999999999</v>
+        <v>454692.5</v>
       </c>
       <c r="W20">
         <f t="shared" si="1"/>
-        <v>1675.6</v>
+        <v>440951.25</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
@@ -8505,11 +10933,11 @@
       <c r="Q21" s="7"/>
       <c r="V21">
         <f t="shared" si="0"/>
-        <v>3036.2</v>
+        <v>501491.25</v>
       </c>
       <c r="W21">
         <f t="shared" si="1"/>
-        <v>1347.0374999999999</v>
+        <v>466590</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -8563,11 +10991,11 @@
       </c>
       <c r="V22">
         <f t="shared" si="0"/>
-        <v>3056.5625</v>
+        <v>506418.75</v>
       </c>
       <c r="W22">
         <f t="shared" si="1"/>
-        <v>1075.21875</v>
+        <v>487170</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
@@ -8592,7 +11020,7 @@
       <c r="H23">
         <v>159.21799999999999</v>
       </c>
-      <c r="I23" s="22"/>
+      <c r="I23" s="19"/>
       <c r="K23" s="1">
         <v>0.25</v>
       </c>
@@ -8603,7 +11031,7 @@
         <v>14.1366</v>
       </c>
       <c r="N23">
-        <v>13.0031</v>
+        <v>13.473100000000001</v>
       </c>
       <c r="O23">
         <v>13.7409</v>
@@ -8652,10 +11080,10 @@
         <v>13.990600000000001</v>
       </c>
       <c r="M24">
-        <v>13.4481</v>
+        <v>13.7936</v>
       </c>
       <c r="N24">
-        <v>13.473100000000001</v>
+        <v>13.225899999999999</v>
       </c>
       <c r="O24">
         <v>13.4315</v>
@@ -8700,16 +11128,16 @@
         <v>13.9161</v>
       </c>
       <c r="M25">
-        <v>13.7936</v>
+        <v>13.5138</v>
       </c>
       <c r="N25">
-        <v>13.225899999999999</v>
+        <v>13.0031</v>
       </c>
       <c r="O25">
         <v>13.1745</v>
       </c>
       <c r="P25">
-        <v>12.636900000000001</v>
+        <v>13.7509</v>
       </c>
       <c r="Q25">
         <v>13.8553</v>
@@ -8718,11 +11146,11 @@
       <c r="S25" s="15"/>
       <c r="V25">
         <f>V17/1024</f>
-        <v>2.9794921875</v>
+        <v>497.2265625</v>
       </c>
       <c r="W25">
         <f>W17/1024</f>
-        <v>1.9985595703125001</v>
+        <v>492.9638671875</v>
       </c>
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
@@ -8753,7 +11181,7 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>13.611499999999999</v>
+        <v>13.729799999999999</v>
       </c>
       <c r="M26">
         <v>13.463800000000001</v>
@@ -8765,7 +11193,7 @@
         <v>12.803699999999999</v>
       </c>
       <c r="P26">
-        <v>13.7509</v>
+        <v>13.5175</v>
       </c>
       <c r="Q26">
         <v>13.5746</v>
@@ -8774,11 +11202,11 @@
       <c r="S26" s="15"/>
       <c r="V26">
         <f t="shared" ref="V26:W26" si="2">V18/1024</f>
-        <v>2.9848876953125001</v>
+        <v>484.21875</v>
       </c>
       <c r="W26">
         <f t="shared" si="2"/>
-        <v>1.858203125</v>
+        <v>483.0810546875</v>
       </c>
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
@@ -8810,10 +11238,10 @@
         <v>2</v>
       </c>
       <c r="L27">
-        <v>13.729799999999999</v>
+        <v>13.611499999999999</v>
       </c>
       <c r="M27">
-        <v>13.5138</v>
+        <v>13.4481</v>
       </c>
       <c r="N27">
         <v>12.510400000000001</v>
@@ -8822,7 +11250,7 @@
         <v>12.566599999999999</v>
       </c>
       <c r="P27">
-        <v>13.5175</v>
+        <v>12.869400000000001</v>
       </c>
       <c r="Q27">
         <v>13.217000000000001</v>
@@ -8831,11 +11259,11 @@
       <c r="S27" s="15"/>
       <c r="V27">
         <f t="shared" ref="V27:W27" si="3">V19/1024</f>
-        <v>2.9794067382812499</v>
+        <v>453.8720703125</v>
       </c>
       <c r="W27">
         <f t="shared" si="3"/>
-        <v>1.7220947265625</v>
+        <v>427.73193359375</v>
       </c>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
@@ -8870,7 +11298,7 @@
         <v>12.8931</v>
       </c>
       <c r="M28">
-        <v>12.502000000000001</v>
+        <v>13.266299999999999</v>
       </c>
       <c r="N28">
         <v>12.29</v>
@@ -8879,10 +11307,10 @@
         <v>12.222</v>
       </c>
       <c r="P28">
-        <v>12.869400000000001</v>
+        <v>12.636900000000001</v>
       </c>
       <c r="Q28">
-        <v>12.837300000000001</v>
+        <v>12.897500000000001</v>
       </c>
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
@@ -8890,11 +11318,11 @@
       <c r="U28" s="13"/>
       <c r="V28">
         <f t="shared" ref="V28:W28" si="4">V20/1024</f>
-        <v>3.0338500976562499</v>
+        <v>444.03564453125</v>
       </c>
       <c r="W28">
         <f t="shared" si="4"/>
-        <v>1.6363281249999999</v>
+        <v>430.616455078125</v>
       </c>
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
@@ -8929,7 +11357,7 @@
         <v>12.3926</v>
       </c>
       <c r="M29">
-        <v>13.266299999999999</v>
+        <v>12.502000000000001</v>
       </c>
       <c r="N29">
         <v>11.926299999999999</v>
@@ -8941,17 +11369,17 @@
         <v>12.2547</v>
       </c>
       <c r="Q29">
-        <v>12.897500000000001</v>
+        <v>12.837300000000001</v>
       </c>
       <c r="R29" s="13"/>
       <c r="S29" s="15"/>
       <c r="V29">
         <f t="shared" ref="V29:W29" si="5">V21/1024</f>
-        <v>2.9650390624999998</v>
+        <v>489.737548828125</v>
       </c>
       <c r="W29">
         <f t="shared" si="5"/>
-        <v>1.3154663085937499</v>
+        <v>455.654296875</v>
       </c>
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
@@ -8968,11 +11396,11 @@
       <c r="S30" s="15"/>
       <c r="V30">
         <f t="shared" ref="V30:W30" si="6">V22/1024</f>
-        <v>2.98492431640625</v>
+        <v>494.549560546875</v>
       </c>
       <c r="W30">
         <f t="shared" si="6"/>
-        <v>1.050018310546875</v>
+        <v>475.751953125</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
@@ -8989,7 +11417,7 @@
         <v>2.9827514648437501</v>
       </c>
       <c r="W31">
-        <f t="shared" ref="V31:W31" si="7">W23/1024</f>
+        <f t="shared" ref="W31" si="7">W23/1024</f>
         <v>0.96669799804687495</v>
       </c>
     </row>
@@ -9003,11 +11431,31 @@
       <c r="R32" s="13"/>
       <c r="S32" s="15"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="R33" s="13"/>
-      <c r="S33" s="14"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S33" s="13">
+        <v>4163380</v>
+      </c>
+      <c r="T33" s="13">
+        <v>4166500</v>
+      </c>
+      <c r="U33" s="13">
+        <v>4139730</v>
+      </c>
+      <c r="V33" s="13">
+        <v>4038360</v>
+      </c>
+      <c r="W33" s="13">
+        <v>4073280</v>
+      </c>
+      <c r="X33" s="13">
+        <v>3713690</v>
+      </c>
+      <c r="Y33" s="13">
+        <v>3480630</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>23</v>
       </c>
@@ -9032,7 +11480,7 @@
       <c r="H34" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I34" s="22"/>
+      <c r="I34" s="19"/>
       <c r="J34" s="4" t="s">
         <v>23</v>
       </c>
@@ -9058,9 +11506,29 @@
         <v>21</v>
       </c>
       <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S34" s="13">
+        <v>4227600</v>
+      </c>
+      <c r="T34" s="6">
+        <v>3969820</v>
+      </c>
+      <c r="U34" s="13">
+        <v>4085370</v>
+      </c>
+      <c r="V34" s="13">
+        <v>3966720</v>
+      </c>
+      <c r="W34" s="13">
+        <v>3957400</v>
+      </c>
+      <c r="X34" s="13">
+        <v>3471960</v>
+      </c>
+      <c r="Y34" s="13">
+        <v>3891010</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>0.25</v>
       </c>
@@ -9086,13 +11554,13 @@
         <v>0.25</v>
       </c>
       <c r="L35" s="11">
-        <v>5.1789699999999998E-3</v>
+        <v>4.6424400000000003E-3</v>
       </c>
       <c r="M35" s="11">
         <v>2.8973499999999999E-3</v>
       </c>
       <c r="N35" s="14">
-        <v>3.2702099999999998E-2</v>
+        <v>1.9564600000000001E-2</v>
       </c>
       <c r="O35" s="14">
         <v>1.11188E-2</v>
@@ -9104,9 +11572,29 @@
         <v>5.3654099999999997E-4</v>
       </c>
       <c r="R35" s="13"/>
-      <c r="S35" s="14"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S35" s="13">
+        <v>3789630</v>
+      </c>
+      <c r="T35" s="13">
+        <v>3967310</v>
+      </c>
+      <c r="U35" s="13">
+        <v>3861220</v>
+      </c>
+      <c r="V35" s="13">
+        <v>3718120</v>
+      </c>
+      <c r="W35" s="13">
+        <v>3503980</v>
+      </c>
+      <c r="X35" s="13">
+        <v>3419870</v>
+      </c>
+      <c r="Y35" s="13">
+        <v>3233920</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>0.5</v>
       </c>
@@ -9132,13 +11620,13 @@
         <v>0.5</v>
       </c>
       <c r="L36" s="11">
-        <v>4.6424400000000003E-3</v>
-      </c>
-      <c r="M36" s="11">
-        <v>1.6246199999999999E-2</v>
+        <v>5.1789699999999998E-3</v>
+      </c>
+      <c r="M36" s="14">
+        <v>1.00903E-2</v>
       </c>
       <c r="N36" s="14">
-        <v>1.9564600000000001E-2</v>
+        <v>2.8028999999999998E-2</v>
       </c>
       <c r="O36" s="14">
         <v>2.12543E-2</v>
@@ -9150,9 +11638,29 @@
         <v>1.46506E-3</v>
       </c>
       <c r="R36" s="13"/>
-      <c r="S36" s="14"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S36" s="13">
+        <v>4079230</v>
+      </c>
+      <c r="T36" s="13">
+        <v>3926290</v>
+      </c>
+      <c r="U36" s="13">
+        <v>3825080</v>
+      </c>
+      <c r="V36" s="13">
+        <v>3637540</v>
+      </c>
+      <c r="W36" s="13">
+        <v>3527610</v>
+      </c>
+      <c r="X36" s="13">
+        <v>3379880</v>
+      </c>
+      <c r="Y36" s="13">
+        <v>3373120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>0.75</v>
       </c>
@@ -9180,25 +11688,45 @@
       <c r="L37" s="11">
         <v>6.7280600000000001E-3</v>
       </c>
-      <c r="M37" s="14">
-        <v>1.00903E-2</v>
+      <c r="M37" s="11">
+        <v>1.6246199999999999E-2</v>
       </c>
       <c r="N37" s="14">
-        <v>2.8028999999999998E-2</v>
+        <v>3.2702099999999998E-2</v>
       </c>
       <c r="O37" s="14">
         <v>3.1638199999999998E-2</v>
       </c>
-      <c r="P37" s="14">
-        <v>3.0648100000000001E-2</v>
+      <c r="P37" s="11">
+        <v>5.0305699999999998E-3</v>
       </c>
       <c r="Q37" s="14">
         <v>2.2469399999999998E-3</v>
       </c>
       <c r="R37" s="13"/>
-      <c r="S37" s="14"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S37" s="13">
+        <v>4212620</v>
+      </c>
+      <c r="T37" s="13">
+        <v>4137320</v>
+      </c>
+      <c r="U37" s="13">
+        <v>3664230</v>
+      </c>
+      <c r="V37" s="13">
+        <v>4106740</v>
+      </c>
+      <c r="W37" s="13">
+        <v>4011930</v>
+      </c>
+      <c r="X37" s="13">
+        <v>3732720</v>
+      </c>
+      <c r="Y37" s="13">
+        <v>3401150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>1</v>
       </c>
@@ -9224,7 +11752,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="11">
-        <v>1.33258E-2</v>
+        <v>9.52801E-3</v>
       </c>
       <c r="M38" s="14">
         <v>1.9090699999999999E-2</v>
@@ -9235,16 +11763,36 @@
       <c r="O38" s="14">
         <v>4.8223299999999997E-2</v>
       </c>
-      <c r="P38" s="7">
-        <v>5.0305699999999998E-3</v>
+      <c r="P38" s="14">
+        <v>1.17603E-2</v>
       </c>
       <c r="Q38" s="14">
         <v>7.6837900000000002E-3</v>
       </c>
       <c r="R38" s="13"/>
-      <c r="S38" s="14"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S38" s="13">
+        <v>4229000</v>
+      </c>
+      <c r="T38" s="13">
+        <v>4141430</v>
+      </c>
+      <c r="U38" s="13">
+        <v>4134430</v>
+      </c>
+      <c r="V38" s="13">
+        <v>4051350</v>
+      </c>
+      <c r="W38" s="13">
+        <v>3897360</v>
+      </c>
+      <c r="X38" s="13">
+        <v>3744700</v>
+      </c>
+      <c r="Y38" s="13">
+        <v>3765830</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>2</v>
       </c>
@@ -9270,10 +11818,10 @@
         <v>2</v>
       </c>
       <c r="L39" s="11">
-        <v>9.52801E-3</v>
+        <v>1.33258E-2</v>
       </c>
       <c r="M39" s="14">
-        <v>2.37039E-2</v>
+        <v>2.18964E-2</v>
       </c>
       <c r="N39" s="14">
         <v>6.5570199999999995E-2</v>
@@ -9282,7 +11830,7 @@
         <v>6.2151699999999997E-2</v>
       </c>
       <c r="P39" s="14">
-        <v>1.17603E-2</v>
+        <v>3.0648100000000001E-2</v>
       </c>
       <c r="Q39" s="14">
         <v>1.8127299999999999E-2</v>
@@ -9290,7 +11838,7 @@
       <c r="R39" s="13"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>4</v>
       </c>
@@ -9319,7 +11867,7 @@
         <v>3.8969299999999998E-2</v>
       </c>
       <c r="M40" s="14">
-        <v>7.4421200000000007E-2</v>
+        <v>2.37039E-2</v>
       </c>
       <c r="N40">
         <v>7.3783500000000002E-2</v>
@@ -9331,12 +11879,32 @@
         <v>3.2240499999999998E-2</v>
       </c>
       <c r="Q40" s="14">
-        <v>2.7068999999999999E-2</v>
+        <v>2.66973E-2</v>
       </c>
       <c r="R40" s="13"/>
-      <c r="S40" s="14"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S40">
+        <v>13.9924</v>
+      </c>
+      <c r="T40">
+        <v>13.990600000000001</v>
+      </c>
+      <c r="U40">
+        <v>13.9161</v>
+      </c>
+      <c r="V40">
+        <v>13.729799999999999</v>
+      </c>
+      <c r="W40">
+        <v>13.611499999999999</v>
+      </c>
+      <c r="X40">
+        <v>12.8931</v>
+      </c>
+      <c r="Y40">
+        <v>12.3926</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B41" s="5">
         <v>5</v>
       </c>
@@ -9365,7 +11933,7 @@
         <v>6.3008099999999997E-2</v>
       </c>
       <c r="M41" s="14">
-        <v>2.18964E-2</v>
+        <v>7.4421200000000007E-2</v>
       </c>
       <c r="N41" s="14">
         <v>9.7855800000000007E-2</v>
@@ -9377,20 +11945,80 @@
         <v>7.5150800000000004E-2</v>
       </c>
       <c r="Q41" s="14">
-        <v>2.66973E-2</v>
+        <v>2.7068999999999999E-2</v>
       </c>
       <c r="R41" s="13"/>
-      <c r="S41" s="14"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S41">
+        <v>14.1366</v>
+      </c>
+      <c r="T41">
+        <v>13.7936</v>
+      </c>
+      <c r="U41">
+        <v>13.5138</v>
+      </c>
+      <c r="V41">
+        <v>13.463800000000001</v>
+      </c>
+      <c r="W41">
+        <v>13.4481</v>
+      </c>
+      <c r="X41">
+        <v>13.266299999999999</v>
+      </c>
+      <c r="Y41">
+        <v>12.502000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="R42" s="13"/>
-      <c r="S42" s="14"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S42">
+        <v>13.473100000000001</v>
+      </c>
+      <c r="T42">
+        <v>13.225899999999999</v>
+      </c>
+      <c r="U42">
+        <v>13.0031</v>
+      </c>
+      <c r="V42">
+        <v>12.9307</v>
+      </c>
+      <c r="W42">
+        <v>12.510400000000001</v>
+      </c>
+      <c r="X42">
+        <v>12.29</v>
+      </c>
+      <c r="Y42">
+        <v>11.926299999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="R43" s="13"/>
-      <c r="S43" s="14"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S43">
+        <v>13.7409</v>
+      </c>
+      <c r="T43">
+        <v>13.4315</v>
+      </c>
+      <c r="U43">
+        <v>13.1745</v>
+      </c>
+      <c r="V43">
+        <v>12.803699999999999</v>
+      </c>
+      <c r="W43">
+        <v>12.566599999999999</v>
+      </c>
+      <c r="X43">
+        <v>12.222</v>
+      </c>
+      <c r="Y43">
+        <v>12.193899999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>25</v>
       </c>
@@ -9439,8 +12067,29 @@
       <c r="Q44" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S44">
+        <v>14.0642</v>
+      </c>
+      <c r="T44">
+        <v>13.815</v>
+      </c>
+      <c r="U44">
+        <v>13.7509</v>
+      </c>
+      <c r="V44">
+        <v>13.5175</v>
+      </c>
+      <c r="W44">
+        <v>12.869400000000001</v>
+      </c>
+      <c r="X44">
+        <v>12.636900000000001</v>
+      </c>
+      <c r="Y44">
+        <v>12.2547</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>0.25</v>
       </c>
@@ -9462,7 +12111,7 @@
       <c r="H45">
         <v>1.9985595703125001</v>
       </c>
-      <c r="I45" s="22"/>
+      <c r="I45" s="19"/>
       <c r="K45" s="1">
         <v>0.25</v>
       </c>
@@ -9470,7 +12119,7 @@
         <v>39.303125000000001</v>
       </c>
       <c r="M45">
-        <v>36.400125000000003</v>
+        <v>48.97025</v>
       </c>
       <c r="N45">
         <v>51.22</v>
@@ -9479,13 +12128,34 @@
         <v>37.232374999999998</v>
       </c>
       <c r="P45">
-        <v>37.570625</v>
+        <v>45.83925</v>
       </c>
       <c r="Q45">
-        <v>35.545875000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+        <v>36.577624999999998</v>
+      </c>
+      <c r="S45">
+        <v>14.1012</v>
+      </c>
+      <c r="T45">
+        <v>13.873200000000001</v>
+      </c>
+      <c r="U45">
+        <v>13.8553</v>
+      </c>
+      <c r="V45">
+        <v>13.5746</v>
+      </c>
+      <c r="W45">
+        <v>13.217000000000001</v>
+      </c>
+      <c r="X45">
+        <v>12.897500000000001</v>
+      </c>
+      <c r="Y45">
+        <v>12.837300000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>0.5</v>
       </c>
@@ -9514,7 +12184,7 @@
         <v>29.765750000000001</v>
       </c>
       <c r="M46">
-        <v>48.97025</v>
+        <v>36.400125000000003</v>
       </c>
       <c r="N46">
         <v>31.809625</v>
@@ -9523,13 +12193,13 @@
         <v>33.087000000000003</v>
       </c>
       <c r="P46">
-        <v>37.220874999999999</v>
+        <v>37.570625</v>
       </c>
       <c r="Q46">
-        <v>32.890374999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+        <v>35.545875000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>0.75</v>
       </c>
@@ -9555,10 +12225,10 @@
         <v>0.75</v>
       </c>
       <c r="L47">
-        <v>26.840875</v>
+        <v>27.914249999999999</v>
       </c>
       <c r="M47">
-        <v>30.971250000000001</v>
+        <v>32.094875000000002</v>
       </c>
       <c r="N47">
         <v>28.227125000000001</v>
@@ -9567,16 +12237,34 @@
         <v>30.100750000000001</v>
       </c>
       <c r="P47">
-        <v>45.83925</v>
+        <v>37.220874999999999</v>
       </c>
       <c r="Q47">
-        <v>28.065750000000001</v>
-      </c>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+        <v>32.890374999999999</v>
+      </c>
+      <c r="S47" s="11">
+        <v>5.1789699999999998E-3</v>
+      </c>
+      <c r="T47" s="11">
+        <v>4.6424400000000003E-3</v>
+      </c>
+      <c r="U47" s="11">
+        <v>6.7280600000000001E-3</v>
+      </c>
+      <c r="V47" s="11">
+        <v>1.33258E-2</v>
+      </c>
+      <c r="W47" s="11">
+        <v>9.52801E-3</v>
+      </c>
+      <c r="X47" s="11">
+        <v>3.8969299999999998E-2</v>
+      </c>
+      <c r="Y47" s="11">
+        <v>6.3008099999999997E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>1</v>
       </c>
@@ -9602,10 +12290,10 @@
         <v>1</v>
       </c>
       <c r="L48">
-        <v>27.914249999999999</v>
+        <v>26.840875</v>
       </c>
       <c r="M48">
-        <v>32.094875000000002</v>
+        <v>30.971250000000001</v>
       </c>
       <c r="N48">
         <v>27.457625</v>
@@ -9617,10 +12305,31 @@
         <v>27.417625000000001</v>
       </c>
       <c r="Q48">
-        <v>36.577624999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+        <v>28.065750000000001</v>
+      </c>
+      <c r="S48" s="11">
+        <v>2.8973499999999999E-3</v>
+      </c>
+      <c r="T48" s="11">
+        <v>1.6246199999999999E-2</v>
+      </c>
+      <c r="U48" s="14">
+        <v>1.00903E-2</v>
+      </c>
+      <c r="V48" s="14">
+        <v>1.9090699999999999E-2</v>
+      </c>
+      <c r="W48" s="14">
+        <v>2.37039E-2</v>
+      </c>
+      <c r="X48" s="14">
+        <v>7.4421200000000007E-2</v>
+      </c>
+      <c r="Y48" s="14">
+        <v>2.18964E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>2</v>
       </c>
@@ -9661,10 +12370,31 @@
         <v>19.362124999999999</v>
       </c>
       <c r="Q49">
-        <v>9.7586499999999994</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+        <v>27.033124999999998</v>
+      </c>
+      <c r="S49" s="14">
+        <v>3.2702099999999998E-2</v>
+      </c>
+      <c r="T49" s="14">
+        <v>1.9564600000000001E-2</v>
+      </c>
+      <c r="U49" s="14">
+        <v>2.8028999999999998E-2</v>
+      </c>
+      <c r="V49" s="14">
+        <v>4.1279799999999998E-2</v>
+      </c>
+      <c r="W49" s="14">
+        <v>6.5570199999999995E-2</v>
+      </c>
+      <c r="X49">
+        <v>7.3783500000000002E-2</v>
+      </c>
+      <c r="Y49" s="14">
+        <v>9.7855800000000007E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>4</v>
       </c>
@@ -9696,19 +12426,40 @@
         <v>19.007999999999999</v>
       </c>
       <c r="N50">
-        <v>10.957475000000001</v>
+        <v>11.3842125</v>
       </c>
       <c r="O50">
         <v>11.450975</v>
       </c>
       <c r="P50">
-        <v>15.103875</v>
+        <v>16.869250000000001</v>
       </c>
       <c r="Q50">
-        <v>27.033124999999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+        <v>21.569875</v>
+      </c>
+      <c r="S50" s="14">
+        <v>1.11188E-2</v>
+      </c>
+      <c r="T50" s="14">
+        <v>2.12543E-2</v>
+      </c>
+      <c r="U50" s="14">
+        <v>3.1638199999999998E-2</v>
+      </c>
+      <c r="V50" s="14">
+        <v>4.8223299999999997E-2</v>
+      </c>
+      <c r="W50" s="14">
+        <v>6.2151699999999997E-2</v>
+      </c>
+      <c r="X50" s="14">
+        <v>7.7037300000000003E-2</v>
+      </c>
+      <c r="Y50" s="14">
+        <v>7.8891699999999995E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B51" s="5">
         <v>5</v>
       </c>
@@ -9740,19 +12491,63 @@
         <v>10.079700000000001</v>
       </c>
       <c r="N51">
-        <v>11.3842125</v>
+        <v>10.957475000000001</v>
       </c>
       <c r="O51">
         <v>9.2595500000000008</v>
       </c>
       <c r="P51">
-        <v>16.869250000000001</v>
+        <v>15.103875</v>
       </c>
       <c r="Q51">
-        <v>14.569875</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18.758649999999999</v>
+      </c>
+      <c r="S51" s="14">
+        <v>2.9370699999999999E-4</v>
+      </c>
+      <c r="T51" s="14">
+        <v>2.2953499999999998E-3</v>
+      </c>
+      <c r="U51" s="14">
+        <v>3.0648100000000001E-2</v>
+      </c>
+      <c r="V51" s="11">
+        <v>5.0305699999999998E-3</v>
+      </c>
+      <c r="W51" s="14">
+        <v>1.17603E-2</v>
+      </c>
+      <c r="X51" s="14">
+        <v>3.2240499999999998E-2</v>
+      </c>
+      <c r="Y51" s="14">
+        <v>7.5150800000000004E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S52" s="14">
+        <v>5.3654099999999997E-4</v>
+      </c>
+      <c r="T52" s="14">
+        <v>1.46506E-3</v>
+      </c>
+      <c r="U52" s="14">
+        <v>2.2469399999999998E-3</v>
+      </c>
+      <c r="V52" s="14">
+        <v>7.6837900000000002E-3</v>
+      </c>
+      <c r="W52" s="14">
+        <v>1.8127299999999999E-2</v>
+      </c>
+      <c r="X52" s="14">
+        <v>2.7068999999999999E-2</v>
+      </c>
+      <c r="Y52" s="14">
+        <v>2.66973E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>26</v>
       </c>
@@ -9802,7 +12597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>0.25</v>
       </c>
@@ -9824,7 +12619,7 @@
       <c r="H54">
         <v>2.9794921875</v>
       </c>
-      <c r="I54" s="22"/>
+      <c r="I54" s="19"/>
       <c r="K54" s="1">
         <v>0.25</v>
       </c>
@@ -9846,8 +12641,29 @@
       <c r="Q54">
         <v>215.27625</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S54" s="11">
+        <v>4.6424400000000003E-3</v>
+      </c>
+      <c r="T54" s="11">
+        <v>5.1789699999999998E-3</v>
+      </c>
+      <c r="U54" s="11">
+        <v>6.7280600000000001E-3</v>
+      </c>
+      <c r="V54" s="11">
+        <v>9.52801E-3</v>
+      </c>
+      <c r="W54" s="11">
+        <v>1.33258E-2</v>
+      </c>
+      <c r="X54" s="11">
+        <v>3.8969299999999998E-2</v>
+      </c>
+      <c r="Y54" s="11">
+        <v>6.3008099999999997E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>0.5</v>
       </c>
@@ -9890,8 +12706,29 @@
       <c r="Q55">
         <v>220.87</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S55" s="11">
+        <v>2.8973499999999999E-3</v>
+      </c>
+      <c r="T55" s="14">
+        <v>1.00903E-2</v>
+      </c>
+      <c r="U55" s="11">
+        <v>1.6246199999999999E-2</v>
+      </c>
+      <c r="V55" s="14">
+        <v>1.9090699999999999E-2</v>
+      </c>
+      <c r="W55" s="14">
+        <v>2.18964E-2</v>
+      </c>
+      <c r="X55" s="14">
+        <v>2.37039E-2</v>
+      </c>
+      <c r="Y55" s="14">
+        <v>7.4421200000000007E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>0.75</v>
       </c>
@@ -9934,8 +12771,29 @@
       <c r="Q56">
         <v>215.42</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S56" s="14">
+        <v>1.9564600000000001E-2</v>
+      </c>
+      <c r="T56" s="14">
+        <v>2.8028999999999998E-2</v>
+      </c>
+      <c r="U56" s="14">
+        <v>3.2702099999999998E-2</v>
+      </c>
+      <c r="V56" s="14">
+        <v>4.1279799999999998E-2</v>
+      </c>
+      <c r="W56" s="14">
+        <v>6.5570199999999995E-2</v>
+      </c>
+      <c r="X56">
+        <v>7.3783500000000002E-2</v>
+      </c>
+      <c r="Y56" s="14">
+        <v>9.7855800000000007E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>1</v>
       </c>
@@ -9978,8 +12836,29 @@
       <c r="Q57">
         <v>241.96</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S57" s="14">
+        <v>1.11188E-2</v>
+      </c>
+      <c r="T57" s="14">
+        <v>2.12543E-2</v>
+      </c>
+      <c r="U57" s="14">
+        <v>3.1638199999999998E-2</v>
+      </c>
+      <c r="V57" s="14">
+        <v>4.8223299999999997E-2</v>
+      </c>
+      <c r="W57" s="14">
+        <v>6.2151699999999997E-2</v>
+      </c>
+      <c r="X57" s="14">
+        <v>7.7037300000000003E-2</v>
+      </c>
+      <c r="Y57" s="14">
+        <v>7.8891699999999995E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>2</v>
       </c>
@@ -10022,8 +12901,29 @@
       <c r="Q58">
         <v>216.38624999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S58" s="14">
+        <v>2.9370699999999999E-4</v>
+      </c>
+      <c r="T58" s="14">
+        <v>2.2953499999999998E-3</v>
+      </c>
+      <c r="U58" s="11">
+        <v>5.0305699999999998E-3</v>
+      </c>
+      <c r="V58" s="14">
+        <v>1.17603E-2</v>
+      </c>
+      <c r="W58" s="14">
+        <v>3.0648100000000001E-2</v>
+      </c>
+      <c r="X58" s="14">
+        <v>3.2240499999999998E-2</v>
+      </c>
+      <c r="Y58" s="14">
+        <v>7.5150800000000004E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>4</v>
       </c>
@@ -10066,8 +12966,29 @@
       <c r="Q59">
         <v>257.20249999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S59" s="14">
+        <v>5.3654099999999997E-4</v>
+      </c>
+      <c r="T59" s="14">
+        <v>1.46506E-3</v>
+      </c>
+      <c r="U59" s="14">
+        <v>2.2469399999999998E-3</v>
+      </c>
+      <c r="V59" s="14">
+        <v>7.6837900000000002E-3</v>
+      </c>
+      <c r="W59" s="14">
+        <v>1.8127299999999999E-2</v>
+      </c>
+      <c r="X59" s="14">
+        <v>2.66973E-2</v>
+      </c>
+      <c r="Y59" s="14">
+        <v>2.7068999999999999E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B60" s="5">
         <v>5</v>
       </c>
@@ -10111,7 +13032,30 @@
         <v>237.48625000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S61">
+        <v>1.9512600000000001E-2</v>
+      </c>
+      <c r="T61">
+        <v>2.05112E-2</v>
+      </c>
+      <c r="U61">
+        <v>2.1672299999999999E-2</v>
+      </c>
+      <c r="V61">
+        <v>2.3449899999999999E-2</v>
+      </c>
+      <c r="W61">
+        <v>2.64589E-2</v>
+      </c>
+      <c r="X61">
+        <v>3.61099E-2</v>
+      </c>
+      <c r="Y61">
+        <v>4.4245800000000002E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>24</v>
       </c>
@@ -10160,8 +13104,29 @@
       <c r="Q62" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S62">
+        <v>1.8056900000000001E-2</v>
+      </c>
+      <c r="T62">
+        <v>2.24256E-2</v>
+      </c>
+      <c r="U62">
+        <v>2.74726E-2</v>
+      </c>
+      <c r="V62">
+        <v>2.7888900000000001E-2</v>
+      </c>
+      <c r="W62">
+        <v>2.8753899999999999E-2</v>
+      </c>
+      <c r="X62">
+        <v>3.05046E-2</v>
+      </c>
+      <c r="Y62">
+        <v>4.3494900000000003E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>0.25</v>
       </c>
@@ -10183,18 +13148,18 @@
       <c r="H63">
         <v>0.25930199999999998</v>
       </c>
-      <c r="I63" s="22"/>
+      <c r="I63" s="19"/>
       <c r="K63" s="1">
         <v>0.25</v>
       </c>
       <c r="L63">
-        <v>2.05112E-2</v>
+        <v>1.9512600000000001E-2</v>
       </c>
       <c r="M63">
         <v>1.8056900000000001E-2</v>
       </c>
       <c r="N63">
-        <v>1.4201800000000001E-2</v>
+        <v>1.1139E-2</v>
       </c>
       <c r="O63">
         <v>1.07758E-2</v>
@@ -10205,8 +13170,29 @@
       <c r="Q63">
         <v>1.7775699999999998E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S63">
+        <v>1.1139E-2</v>
+      </c>
+      <c r="T63">
+        <v>1.1755699999999999E-2</v>
+      </c>
+      <c r="U63">
+        <v>1.29059E-2</v>
+      </c>
+      <c r="V63">
+        <v>1.29353E-2</v>
+      </c>
+      <c r="W63">
+        <v>1.31098E-2</v>
+      </c>
+      <c r="X63">
+        <v>1.4076699999999999E-2</v>
+      </c>
+      <c r="Y63">
+        <v>1.4201800000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>0.5</v>
       </c>
@@ -10232,13 +13218,13 @@
         <v>0.5</v>
       </c>
       <c r="L64">
-        <v>1.9512600000000001E-2</v>
+        <v>2.05112E-2</v>
       </c>
       <c r="M64">
-        <v>2.8753899999999999E-2</v>
+        <v>2.24256E-2</v>
       </c>
       <c r="N64">
-        <v>1.1139E-2</v>
+        <v>1.1755699999999999E-2</v>
       </c>
       <c r="O64">
         <v>1.1183E-2</v>
@@ -10249,8 +13235,29 @@
       <c r="Q64">
         <v>2.0202999999999999E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S64">
+        <v>1.07758E-2</v>
+      </c>
+      <c r="T64">
+        <v>1.1183E-2</v>
+      </c>
+      <c r="U64">
+        <v>1.1941200000000001E-2</v>
+      </c>
+      <c r="V64">
+        <v>1.2532400000000001E-2</v>
+      </c>
+      <c r="W64">
+        <v>1.2858899999999999E-2</v>
+      </c>
+      <c r="X64">
+        <v>1.2981299999999999E-2</v>
+      </c>
+      <c r="Y64">
+        <v>1.31226E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>0.75</v>
       </c>
@@ -10279,26 +13286,44 @@
         <v>2.1672299999999999E-2</v>
       </c>
       <c r="M65">
-        <v>2.24256E-2</v>
+        <v>2.74726E-2</v>
       </c>
       <c r="N65">
-        <v>1.1755699999999999E-2</v>
+        <v>1.29059E-2</v>
       </c>
       <c r="O65">
         <v>1.1941200000000001E-2</v>
       </c>
       <c r="P65">
-        <v>4.4329899999999998E-2</v>
+        <v>2.3582599999999999E-2</v>
       </c>
       <c r="Q65">
         <v>2.11159E-2</v>
       </c>
       <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-      <c r="U65" s="2"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S65">
+        <v>1.83655E-2</v>
+      </c>
+      <c r="T65">
+        <v>2.3086700000000002E-2</v>
+      </c>
+      <c r="U65">
+        <v>2.3582599999999999E-2</v>
+      </c>
+      <c r="V65">
+        <v>2.75678E-2</v>
+      </c>
+      <c r="W65">
+        <v>3.6866400000000001E-2</v>
+      </c>
+      <c r="X65">
+        <v>4.4329899999999998E-2</v>
+      </c>
+      <c r="Y65">
+        <v>4.8324899999999997E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>1</v>
       </c>
@@ -10324,25 +13349,46 @@
         <v>1</v>
       </c>
       <c r="L66">
-        <v>2.64589E-2</v>
+        <v>2.3449899999999999E-2</v>
       </c>
       <c r="M66">
-        <v>2.74726E-2</v>
+        <v>2.7888900000000001E-2</v>
       </c>
       <c r="N66">
-        <v>1.29059E-2</v>
+        <v>1.29353E-2</v>
       </c>
       <c r="O66">
-        <v>1.2981299999999999E-2</v>
+        <v>1.2532400000000001E-2</v>
       </c>
       <c r="P66">
-        <v>2.3582599999999999E-2</v>
+        <v>2.75678E-2</v>
       </c>
       <c r="Q66">
         <v>2.6979300000000001E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S66">
+        <v>1.7775699999999998E-2</v>
+      </c>
+      <c r="T66">
+        <v>2.0202999999999999E-2</v>
+      </c>
+      <c r="U66">
+        <v>2.11159E-2</v>
+      </c>
+      <c r="V66">
+        <v>2.6979300000000001E-2</v>
+      </c>
+      <c r="W66">
+        <v>3.1694699999999999E-2</v>
+      </c>
+      <c r="X66">
+        <v>3.6635800000000003E-2</v>
+      </c>
+      <c r="Y66">
+        <v>3.8470400000000002E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>2</v>
       </c>
@@ -10368,25 +13414,25 @@
         <v>2</v>
       </c>
       <c r="L67">
-        <v>2.3449899999999999E-2</v>
+        <v>2.64589E-2</v>
       </c>
       <c r="M67">
-        <v>2.7888900000000001E-2</v>
+        <v>2.8753899999999999E-2</v>
       </c>
       <c r="N67">
-        <v>1.29353E-2</v>
+        <v>1.31098E-2</v>
       </c>
       <c r="O67">
-        <v>1.2532400000000001E-2</v>
+        <v>1.2858899999999999E-2</v>
       </c>
       <c r="P67">
-        <v>2.75678E-2</v>
+        <v>3.6866400000000001E-2</v>
       </c>
       <c r="Q67">
         <v>3.1694699999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>4</v>
       </c>
@@ -10415,22 +13461,43 @@
         <v>3.61099E-2</v>
       </c>
       <c r="M68">
-        <v>4.3494900000000003E-2</v>
+        <v>3.05046E-2</v>
       </c>
       <c r="N68">
-        <v>1.31098E-2</v>
+        <v>1.4076699999999999E-2</v>
       </c>
       <c r="O68">
-        <v>1.2858899999999999E-2</v>
+        <v>1.2981299999999999E-2</v>
       </c>
       <c r="P68">
-        <v>3.6866400000000001E-2</v>
+        <v>4.4329899999999998E-2</v>
       </c>
       <c r="Q68">
-        <v>3.8470400000000002E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.6635800000000003E-2</v>
+      </c>
+      <c r="S68">
+        <v>39.303125000000001</v>
+      </c>
+      <c r="T68">
+        <v>29.765750000000001</v>
+      </c>
+      <c r="U68">
+        <v>27.914249999999999</v>
+      </c>
+      <c r="V68">
+        <v>26.840875</v>
+      </c>
+      <c r="W68">
+        <v>15.123374999999999</v>
+      </c>
+      <c r="X68">
+        <v>12.717124999999999</v>
+      </c>
+      <c r="Y68">
+        <v>12.170187500000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B69" s="5">
         <v>5</v>
       </c>
@@ -10459,10 +13526,10 @@
         <v>4.4245800000000002E-2</v>
       </c>
       <c r="M69">
-        <v>3.05046E-2</v>
+        <v>4.3494900000000003E-2</v>
       </c>
       <c r="N69">
-        <v>1.4076699999999999E-2</v>
+        <v>1.4201800000000001E-2</v>
       </c>
       <c r="O69">
         <v>1.31226E-2</v>
@@ -10471,54 +13538,270 @@
         <v>4.8324899999999997E-2</v>
       </c>
       <c r="Q69">
-        <v>3.6635800000000003E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.8470400000000002E-2</v>
+      </c>
+      <c r="S69">
+        <v>48.97025</v>
+      </c>
+      <c r="T69">
+        <v>36.400125000000003</v>
+      </c>
+      <c r="U69">
+        <v>32.094875000000002</v>
+      </c>
+      <c r="V69">
+        <v>30.971250000000001</v>
+      </c>
+      <c r="W69">
+        <v>20.530625000000001</v>
+      </c>
+      <c r="X69">
+        <v>19.007999999999999</v>
+      </c>
+      <c r="Y69">
+        <v>10.079700000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S70">
+        <v>51.22</v>
+      </c>
+      <c r="T70">
+        <v>31.809625</v>
+      </c>
+      <c r="U70">
+        <v>28.227125000000001</v>
+      </c>
+      <c r="V70">
+        <v>27.457625</v>
+      </c>
+      <c r="W70">
+        <v>20.292750000000002</v>
+      </c>
+      <c r="X70">
+        <v>11.3842125</v>
+      </c>
+      <c r="Y70">
+        <v>10.957475000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S71">
+        <v>37.232374999999998</v>
+      </c>
+      <c r="T71">
+        <v>33.087000000000003</v>
+      </c>
+      <c r="U71">
+        <v>30.100750000000001</v>
+      </c>
+      <c r="V71">
+        <v>29.31775</v>
+      </c>
+      <c r="W71">
+        <v>19.091125000000002</v>
+      </c>
+      <c r="X71">
+        <v>11.450975</v>
+      </c>
+      <c r="Y71">
+        <v>9.2595500000000008</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>1.4753784179687499</v>
+      </c>
+      <c r="D72">
+        <v>1.25731201171875</v>
+      </c>
+      <c r="E72">
+        <v>1.100535888671875</v>
+      </c>
+      <c r="F72">
+        <v>0.97884521484374998</v>
+      </c>
+      <c r="G72">
+        <v>0.68507202148437496</v>
+      </c>
+      <c r="H72">
+        <v>0.40639648437499998</v>
+      </c>
+      <c r="I72">
+        <v>0.35071899414062502</v>
+      </c>
+      <c r="S72">
+        <v>45.83925</v>
+      </c>
+      <c r="T72">
+        <v>37.570625</v>
+      </c>
+      <c r="U72">
+        <v>37.220874999999999</v>
+      </c>
+      <c r="V72">
+        <v>27.417625000000001</v>
+      </c>
+      <c r="W72">
+        <v>19.362124999999999</v>
+      </c>
+      <c r="X72">
+        <v>16.869250000000001</v>
+      </c>
+      <c r="Y72">
+        <v>15.103875</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
+      <c r="C73">
+        <v>1.4700561523437501</v>
+      </c>
+      <c r="D73">
+        <v>1.3173583984374999</v>
+      </c>
+      <c r="E73">
+        <v>1.15713623046875</v>
+      </c>
+      <c r="F73">
+        <v>1.038187255859375</v>
+      </c>
+      <c r="G73">
+        <v>0.72447631835937498</v>
+      </c>
+      <c r="H73">
+        <v>0.44018920898437502</v>
+      </c>
+      <c r="I73">
+        <v>0.37725830078125</v>
+      </c>
       <c r="K73" s="2"/>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S73">
+        <v>36.577624999999998</v>
+      </c>
+      <c r="T73">
+        <v>35.545875000000002</v>
+      </c>
+      <c r="U73">
+        <v>32.890374999999999</v>
+      </c>
+      <c r="V73">
+        <v>28.065750000000001</v>
+      </c>
+      <c r="W73">
+        <v>27.033124999999998</v>
+      </c>
+      <c r="X73">
+        <v>21.569875</v>
+      </c>
+      <c r="Y73">
+        <v>18.758649999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
+      <c r="C74">
+        <v>1.4593505859375</v>
+      </c>
+      <c r="D74">
+        <v>1.3050537109375</v>
+      </c>
+      <c r="E74">
+        <v>1.14164306640625</v>
+      </c>
+      <c r="F74">
+        <v>1.0328662109375</v>
+      </c>
+      <c r="G74">
+        <v>0.69463256835937504</v>
+      </c>
+      <c r="H74">
+        <v>0.42229858398437498</v>
+      </c>
+      <c r="I74">
+        <v>0.35993041992187502</v>
+      </c>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>1.49378662109375</v>
+      </c>
+      <c r="D75">
+        <v>1.2788452148437499</v>
+      </c>
+      <c r="E75">
+        <v>1.145234375</v>
+      </c>
+      <c r="F75">
+        <v>1.010489501953125</v>
+      </c>
+      <c r="G75">
+        <v>0.69741455078125003</v>
+      </c>
+      <c r="H75">
+        <v>0.43022705078125001</v>
+      </c>
+      <c r="I75">
+        <v>0.36687744140625</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="I76" s="2"/>
+      <c r="C76">
+        <v>1.82373046875</v>
+      </c>
+      <c r="D76">
+        <v>1.6661376953125</v>
+      </c>
+      <c r="E76">
+        <v>1.50745849609375</v>
+      </c>
+      <c r="F76">
+        <v>1.37799072265625</v>
+      </c>
+      <c r="G76">
+        <v>1.0312158203124999</v>
+      </c>
+      <c r="H76">
+        <v>0.67472534179687504</v>
+      </c>
+      <c r="I76">
+        <v>0.58754638671875004</v>
+      </c>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>1.9985595703125001</v>
+      </c>
+      <c r="D77">
+        <v>1.858203125</v>
+      </c>
+      <c r="E77">
+        <v>1.7220947265625</v>
+      </c>
+      <c r="F77">
+        <v>1.6363281249999999</v>
+      </c>
+      <c r="G77">
+        <v>1.3154663085937499</v>
+      </c>
+      <c r="H77">
+        <v>1.050018310546875</v>
+      </c>
+      <c r="I77">
+        <v>0.96669799804687495</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -10526,13 +13809,145 @@
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
     </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>0.22470799999999999</v>
+      </c>
+      <c r="D79">
+        <v>0.31245099999999998</v>
+      </c>
+      <c r="E79">
+        <v>0.38057099999999999</v>
+      </c>
+      <c r="F79">
+        <v>0.43039500000000003</v>
+      </c>
+      <c r="G79">
+        <v>0.56414200000000003</v>
+      </c>
+      <c r="H79">
+        <v>0.66830900000000004</v>
+      </c>
+      <c r="I79">
+        <v>0.69400899999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>0.205788</v>
+      </c>
+      <c r="D80">
+        <v>0.27261999999999997</v>
+      </c>
+      <c r="E80">
+        <v>0.330125</v>
+      </c>
+      <c r="F80">
+        <v>0.37825599999999998</v>
+      </c>
+      <c r="G80">
+        <v>0.50979699999999994</v>
+      </c>
+      <c r="H80">
+        <v>0.63016399999999995</v>
+      </c>
+      <c r="I80">
+        <v>0.664134</v>
+      </c>
+    </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I81" s="6"/>
+      <c r="C81">
+        <v>0.18733</v>
+      </c>
+      <c r="D81">
+        <v>0.26022299999999998</v>
+      </c>
+      <c r="E81">
+        <v>0.32072899999999999</v>
+      </c>
+      <c r="F81">
+        <v>0.378687</v>
+      </c>
+      <c r="G81">
+        <v>0.52237800000000001</v>
+      </c>
+      <c r="H81">
+        <v>0.64440600000000003</v>
+      </c>
+      <c r="I81">
+        <v>0.66709200000000002</v>
+      </c>
       <c r="J81" s="6"/>
     </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>0.18936600000000001</v>
+      </c>
+      <c r="D82">
+        <v>0.25750400000000001</v>
+      </c>
+      <c r="E82">
+        <v>0.31896999999999998</v>
+      </c>
+      <c r="F82">
+        <v>0.378272</v>
+      </c>
+      <c r="G82">
+        <v>0.51555700000000004</v>
+      </c>
+      <c r="H82">
+        <v>0.64465499999999998</v>
+      </c>
+      <c r="I82">
+        <v>0.66783099999999995</v>
+      </c>
+    </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I83" s="6"/>
+      <c r="C83">
+        <v>0.28237000000000001</v>
+      </c>
+      <c r="D83">
+        <v>0.391901</v>
+      </c>
+      <c r="E83">
+        <v>0.47606900000000002</v>
+      </c>
+      <c r="F83">
+        <v>0.53803299999999998</v>
+      </c>
+      <c r="G83">
+        <v>0.68076000000000003</v>
+      </c>
+      <c r="H83">
+        <v>0.78868099999999997</v>
+      </c>
+      <c r="I83">
+        <v>0.82174100000000005</v>
+      </c>
       <c r="J83" s="6"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>0.25930199999999998</v>
+      </c>
+      <c r="D84">
+        <v>0.34742899999999999</v>
+      </c>
+      <c r="E84">
+        <v>0.41232600000000003</v>
+      </c>
+      <c r="F84">
+        <v>0.46391399999999999</v>
+      </c>
+      <c r="G84">
+        <v>0.57086999999999999</v>
+      </c>
+      <c r="H84">
+        <v>0.66574800000000001</v>
+      </c>
+      <c r="I84">
+        <v>0.68141799999999997</v>
+      </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I86" s="6"/>
@@ -10544,8 +13959,8 @@
       <c r="C90" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="C46:C51">
-    <sortCondition ref="C46:C51"/>
+  <sortState ref="Q23:Q29">
+    <sortCondition descending="1" ref="Q23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
